--- a/я. Бетон (Июнь).xlsx
+++ b/я. Бетон (Июнь).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\AOCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB67F18-A128-4E4A-A5FF-7764AFB0FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93C0B04-6D01-416A-83D6-3FD5F3BE138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -917,6 +917,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,12 +948,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1355,36 +1355,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="52" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="47" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="49" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -1392,19 +1392,19 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="47"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="M2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="47"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
@@ -7106,254 +7106,257 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="55" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.85546875" style="55" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="3.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="46" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.85546875" style="46" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="55">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="47">
         <v>45825</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="47">
         <v>45825</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="46">
         <v>17</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="47">
+        <v>45823</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="47">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="46">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="47">
+        <v>45825</v>
+      </c>
+      <c r="E4" s="47">
+        <v>45825</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="46">
+        <v>122.7</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="46">
+        <v>121</v>
+      </c>
+      <c r="J4" s="47">
+        <v>45825</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="47">
         <v>45831</v>
       </c>
-      <c r="N3" s="55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="55">
-        <v>2</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="55" t="s">
+      <c r="N4" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="46">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="47">
+        <v>45823</v>
+      </c>
+      <c r="E5" s="47">
+        <v>45823</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="46">
+        <v>8</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="46">
+        <v>9</v>
+      </c>
+      <c r="J5" s="47">
+        <v>45823</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="47">
+        <v>45828</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="46">
+        <v>19</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="47">
+        <v>45821</v>
+      </c>
+      <c r="E6" s="47">
+        <v>45821</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="46">
+        <v>61</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="46">
         <v>55</v>
       </c>
-      <c r="D4" s="56">
-        <v>45825</v>
-      </c>
-      <c r="E4" s="56">
-        <v>45825</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="55">
-        <v>122.7</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="55">
-        <v>121</v>
-      </c>
-      <c r="J4" s="56">
-        <v>45825</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="56">
-        <v>45831</v>
-      </c>
-      <c r="N4" s="55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="55">
-        <v>4</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="56">
-        <v>45823</v>
-      </c>
-      <c r="E5" s="56">
-        <v>45823</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="55">
-        <v>8</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="55">
-        <v>9</v>
-      </c>
-      <c r="J5" s="56">
-        <v>45823</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="56">
+      <c r="J6" s="47">
+        <v>45821</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="47">
         <v>45828</v>
       </c>
-      <c r="N5" s="55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="55">
-        <v>19</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="56">
-        <v>45821</v>
-      </c>
-      <c r="E6" s="56">
-        <v>45821</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="55">
-        <v>61</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="55">
-        <v>55</v>
-      </c>
-      <c r="J6" s="56">
-        <v>45821</v>
-      </c>
-      <c r="L6" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="56">
-        <v>45828</v>
-      </c>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="46" t="s">
         <v>26</v>
       </c>
     </row>

--- a/я. Бетон (Июнь).xlsx
+++ b/я. Бетон (Июнь).xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\AOCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saratov\Desktop\Рудаков\my\ТМГ\Июнь\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E205C98-F81F-466A-9E0E-058AA2C6E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61160552-AF10-4501-A137-D35BD0A35262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25665" yWindow="2730" windowWidth="17775" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Бетон" sheetId="1" r:id="rId1"/>
-    <sheet name="Бетон для АОСР" sheetId="2" r:id="rId2"/>
+    <sheet name="Армир" sheetId="3" r:id="rId2"/>
+    <sheet name="Бетон для АОСР" sheetId="2" r:id="rId3"/>
+    <sheet name="Армир для АОСР" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Бетон!$A$1:$P$43</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="231">
   <si>
     <t>№</t>
   </si>
@@ -154,9 +156,6 @@
   </si>
   <si>
     <t>255</t>
-  </si>
-  <si>
-    <t>ИМИП-МРАЛ1-Р-Г0100-СТ01-002-01-КЖ12</t>
   </si>
   <si>
     <t>11-000025666</t>
@@ -724,6 +723,172 @@
   </si>
   <si>
     <t>06/25Б-41</t>
+  </si>
+  <si>
+    <t>06/25А</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стены СТм-1 в кабельной шахте
+в осях: 33(+0.740) - 34/1(-0.015) /Н(+0.030) - Н(+3.250)
+с ПК98+64.151 по ПК98+68.951 на отм. 131.095 до 134.095</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке плиты перекрытия Пм-3-1 и Балок Бм-3-1, Бм-3-2
+в осях: 40(-0.250) - 42/1(-0.015) /А - Н
+с ПК98+20.051 по ПК98+32.351 на отм. 129.942 до 131.520</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке плиты перекрытия Пм-3-1
+в осях: 34/1(+0.015) - 38(+1.800) /А - Н
+с ПК98+42.101 по ПК98+64.121 на отм. 129.847 до 130.612</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стены СТм-2-10
+в осях: 38(+1.800) - 40(-0.250) /А(+5.150) - Д(-2.050)
+с ПК98+32.351 по ПК98+42.101 на отм. 127.222 до 130.241</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стены СТм-2-12
+в осях: 39(+1.150) - 40(-3.850) /Д(-2.050) - Л(-0.300)
+с ПК98+35.951 по ПК98+36.151 на отм. 127.240 до 129.780</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стены СТм-2-4
+в осях: 38(+1.800) - 40(+0.100) /Л(-0.300) - Л(+0.300)
+с ПК98+32.001 по ПК98+42.101 на отм. 127.213 до 129.933</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стены СТм-2-5
+в осях: 38(+1.800) - 40(+0.100) /Д(-0.300) - Д(+0.300)
+с ПК98+32.001 по ПК98+42.101 на отм. 127.213 до 129.933</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стены СТм-1
+в осях: 41(+0.500) - 42(-1.800) /А(-0.030) - А(-3.900)
+с ПК98+22.116 по ПК98+26.416 на отм. 121.928 до 124.928</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Плиты перекрытия Пм-2 в кабельной шахте
+в осях: 33(+0.740) - 34/1(-0.015) /Н(+0.030) - Н(+3.250)
+с ПК98+64.151 по ПК98+68.951 на отм. 130.695 до 131.095</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стены СТм-2-7
+в осях: 36 - 37(-3.250) /А(+5.150) - Д(-0.300)
+с ПК98+53.751 по ПК98+57.101 на отм. 127.186 до 130.176</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стен СТм-2-9 и СТм-2-10
+в осях: 34/1(+0.015) - 38(+1.800) /А(+5.150) - Д(-2.050)
+с ПК98+42.101 по ПК98+64.121 на отм. 127.156 до 130.212</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке стены СТм-3-4
+в осях: 34/1(+0.015) - 38 /Л(-0.300) - Л(+0.300)
+с ПК98+43.901 по ПК98+64.121 на отм. 130.547 до 134.158</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке стены СТм-3-1
+в осях: 40 - 42/1(-0.015) / Н - Н(-0.500)
+с ПК98+20.051 по ПК98+32.101 на отм. 130.642 до 134.220</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стены СТм-3-16
+в осях: 40(-0.250) - 42/1(-1.850) / Г(-0.250) - М(+0.250)
+с ПК98+21.891 по ПК98+32.351 на отм. 131.492 до 134.523</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стены СТм-3-1
+в осях: 34/1(+0.015) - 38 / Н - Н(-0.500)
+с ПК98+43.901 по ПК98+64.121 на отм. 130.547 до 134.158</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Лестницы Лм-3
+в осях: 35(-0.120) - 35(+2.480) / Д(+0.300) - Л(-2.300)
+с ПК98+61.221 по ПК98+63.821 на отм. 127.156 до 129.096</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке колонн Км-3-1, Км-3-2, Км-3-3, Км-3-4
+в осях: 40(-0.250) - 41(+0.400) / Г(-0.250) - М(+0.250)
+с ПК98+25.501 по ПК98+32.351 на отм. 131.492 до 134.207</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке плиты наклонного хода Пм-2-3
+в осях: 38(+2.630) - 40(-1.963) / Д(-0.300) - Л(+0.300)
+с ПК98+34.065 по ПК98+41.272 на отм. 126.825 до 131.562</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке плиты перекрытия Пм-3-1
+в осях: 38(+1.800) - 40(-0.250) / А - Н
+с ПК98+32.351 по ПК98+42.101 на отм. 129.912 до 131.592</t>
+  </si>
+  <si>
+    <t>Армирование в опалубке Стены СТм-3-11
+в осях: 40(+0.720) - 41(+1.620) / А(+0.500) - А(+2.850)
+с ПК98+25.281 по ПК98+31.381 на отм. 130.645 до 134.512</t>
+  </si>
+  <si>
+    <t>06/25А-1</t>
+  </si>
+  <si>
+    <t>06/25А-2</t>
+  </si>
+  <si>
+    <t>06/25А-3</t>
+  </si>
+  <si>
+    <t>06/25А-4</t>
+  </si>
+  <si>
+    <t>06/25А-5</t>
+  </si>
+  <si>
+    <t>06/25А-6</t>
+  </si>
+  <si>
+    <t>06/25А-7</t>
+  </si>
+  <si>
+    <t>06/25А-8</t>
+  </si>
+  <si>
+    <t>06/25А-9</t>
+  </si>
+  <si>
+    <t>06/25А-10</t>
+  </si>
+  <si>
+    <t>06/25А-11</t>
+  </si>
+  <si>
+    <t>06/25А-13</t>
+  </si>
+  <si>
+    <t>06/25А-14</t>
+  </si>
+  <si>
+    <t>06/25А-15</t>
+  </si>
+  <si>
+    <t>06/25А-16</t>
+  </si>
+  <si>
+    <t>06/25А-17</t>
+  </si>
+  <si>
+    <t>06/25А-18</t>
+  </si>
+  <si>
+    <t>06/25А-20</t>
+  </si>
+  <si>
+    <t>06/25А-22</t>
+  </si>
+  <si>
+    <t>06/25А-23</t>
   </si>
 </sst>
 </file>
@@ -885,13 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,40 +1374,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1257,6 +1419,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1664,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1684,7 +1849,7 @@
     <col min="12" max="12" width="7.28515625" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="56" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="32"/>
     <col min="17" max="17" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
@@ -1716,7 +1881,7 @@
       <c r="I1" s="65"/>
       <c r="J1" s="66"/>
       <c r="K1" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="65"/>
       <c r="M1" s="65"/>
@@ -1768,12 +1933,12 @@
       <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="str">
+      <c r="B3" s="52" t="str">
         <f>CONCATENATE(B$2,"-",A3)</f>
         <v>06/25Б-1</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="20">
         <v>45825</v>
@@ -1783,7 +1948,7 @@
         <v>45825</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="22">
         <v>17</v>
@@ -1811,7 +1976,7 @@
         <v>45825</v>
       </c>
       <c r="P3" s="35"/>
-      <c r="Q3" s="54">
+      <c r="Q3" s="53">
         <v>45812</v>
       </c>
     </row>
@@ -1825,7 +1990,7 @@
         <v>06/25Б-2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8">
         <v>45825</v>
@@ -1835,7 +2000,7 @@
         <v>45825</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="27">
         <v>122.7</v>
@@ -1862,7 +2027,7 @@
       <c r="O4" s="8">
         <v>45819</v>
       </c>
-      <c r="Q4" s="55">
+      <c r="Q4" s="54">
         <v>45818</v>
       </c>
     </row>
@@ -1885,7 +2050,7 @@
         <v>45825</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="10">
         <v>158</v>
@@ -1912,7 +2077,7 @@
       <c r="O5" s="8">
         <v>45819</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="54">
         <v>45824</v>
       </c>
     </row>
@@ -1926,7 +2091,7 @@
         <v>06/25Б-4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="8">
         <v>45823</v>
@@ -1936,7 +2101,7 @@
         <v>45823</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="10">
         <v>8</v>
@@ -1974,7 +2139,7 @@
         <v>06/25Б-5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="8">
         <v>45823</v>
@@ -1984,7 +2149,7 @@
         <v>45823</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10">
         <v>5</v>
@@ -2020,7 +2185,7 @@
         <v>06/25Б-6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="8">
         <v>45823</v>
@@ -2030,7 +2195,7 @@
         <v>45823</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="27">
         <v>13</v>
@@ -2068,7 +2233,7 @@
         <v>06/25Б-7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="8">
         <v>45823</v>
@@ -2078,7 +2243,7 @@
         <v>45823</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="10">
         <v>12</v>
@@ -2105,7 +2270,7 @@
       <c r="O9" s="8">
         <v>45817</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="54">
         <v>45817</v>
       </c>
     </row>
@@ -2119,7 +2284,7 @@
         <v>06/25Б-8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8">
         <v>45821</v>
@@ -2129,7 +2294,7 @@
         <v>45821</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="27">
         <v>18</v>
@@ -2167,7 +2332,7 @@
         <v>06/25Б-9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8">
         <v>45819</v>
@@ -2177,13 +2342,13 @@
         <v>45819</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="10">
         <v>7</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="13">
         <f>8+3.5</f>
@@ -2193,17 +2358,17 @@
         <v>45819</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="8">
         <v>45824</v>
       </c>
       <c r="N11" s="40" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8"/>
-      <c r="Q11" s="55">
+      <c r="Q11" s="54">
         <v>45812</v>
       </c>
     </row>
@@ -2217,7 +2382,7 @@
         <v>06/25Б-10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8">
         <v>45819</v>
@@ -2227,13 +2392,13 @@
         <v>45819</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="10">
         <v>6</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="13">
         <f>8+3.5</f>
@@ -2243,7 +2408,7 @@
         <v>45819</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="8">
@@ -2264,7 +2429,7 @@
         <v>06/25Б-11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8">
         <v>45819</v>
@@ -2274,23 +2439,23 @@
         <v>45819</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="22">
         <f>5.08+8.71</f>
         <v>13.790000000000001</v>
       </c>
       <c r="H13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="8">
@@ -2313,7 +2478,7 @@
         <v>06/25Б-12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8">
         <v>45825</v>
@@ -2322,7 +2487,7 @@
         <v>45826</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="10">
         <v>32</v>
@@ -2338,7 +2503,7 @@
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" s="8">
         <v>45832</v>
@@ -2348,7 +2513,7 @@
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="45">
@@ -2361,7 +2526,7 @@
         <v>06/25Б-13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8">
         <v>45830</v>
@@ -2370,7 +2535,7 @@
         <v>45830</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="33">
         <v>39</v>
@@ -2385,14 +2550,14 @@
         <v>45830</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="8">
         <v>45835</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O15" s="8">
         <v>45827</v>
@@ -2408,7 +2573,7 @@
         <v>06/25Б-14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="8">
         <v>45831</v>
@@ -2417,29 +2582,29 @@
         <v>45831</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="33">
         <v>22</v>
       </c>
       <c r="H16" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="J16" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="K16" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="8">
         <v>45836</v>
       </c>
       <c r="N16" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O16" s="8">
         <v>45827</v>
@@ -2455,7 +2620,7 @@
         <v>06/25Б-15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="8">
         <v>45829</v>
@@ -2464,7 +2629,7 @@
         <v>45830</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="33">
         <v>18</v>
@@ -2479,22 +2644,22 @@
         <v>45830</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="8">
         <v>45835</v>
       </c>
       <c r="N17" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O17" s="8">
         <v>45828</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="55">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="54">
         <v>45826</v>
       </c>
     </row>
@@ -2508,7 +2673,7 @@
         <v>06/25Б-16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="8">
         <v>45828</v>
@@ -2517,7 +2682,7 @@
         <v>45828</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="33">
         <v>36</v>
@@ -2532,14 +2697,14 @@
         <v>45828</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="8">
         <v>45833</v>
       </c>
       <c r="N18" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O18" s="8"/>
     </row>
@@ -2553,7 +2718,7 @@
         <v>06/25Б-17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="8">
         <v>45817</v>
@@ -2562,13 +2727,13 @@
         <v>45817</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="10">
         <v>2</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" s="13">
         <v>2</v>
@@ -2577,14 +2742,14 @@
         <v>45817</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="8">
         <v>45822</v>
       </c>
       <c r="N19" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O19" s="8"/>
     </row>
@@ -2598,7 +2763,7 @@
         <v>06/25Б-18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="8">
         <v>45829</v>
@@ -2607,13 +2772,13 @@
         <v>45829</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" s="13">
         <v>4.5</v>
@@ -2622,14 +2787,14 @@
         <v>45829</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="8">
         <v>45834</v>
       </c>
       <c r="N20" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
     </row>
@@ -2643,7 +2808,7 @@
         <v>06/25Б-19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="8">
         <v>45821</v>
@@ -2652,7 +2817,7 @@
         <v>45821</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="33">
         <v>61</v>
@@ -2668,7 +2833,7 @@
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" s="8">
         <v>45828</v>
@@ -2678,7 +2843,7 @@
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="45">
@@ -2691,7 +2856,7 @@
         <v>06/25Б-20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="8">
         <v>45831</v>
@@ -2700,7 +2865,7 @@
         <v>45832</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="33">
         <v>37</v>
@@ -2715,14 +2880,14 @@
         <v>45832</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="8">
         <v>45838</v>
       </c>
       <c r="N22" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O22" s="8"/>
     </row>
@@ -2736,7 +2901,7 @@
         <v>06/25Б-21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="8">
         <v>45819</v>
@@ -2745,33 +2910,33 @@
         <v>45819</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="33">
         <v>21</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M23" s="8">
         <v>45826</v>
       </c>
       <c r="N23" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O23" s="8"/>
       <c r="P23" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="45">
@@ -2784,7 +2949,7 @@
         <v>06/25Б-22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="8">
         <v>45831</v>
@@ -2793,7 +2958,7 @@
         <v>45831</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="33">
         <v>97</v>
@@ -2808,7 +2973,7 @@
         <v>45831</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="8">
@@ -2820,7 +2985,7 @@
       <c r="O24" s="8">
         <v>45819</v>
       </c>
-      <c r="Q24" s="55">
+      <c r="Q24" s="54">
         <v>45824</v>
       </c>
     </row>
@@ -2834,7 +2999,7 @@
         <v>06/25Б-23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="8">
         <v>45831</v>
@@ -2843,13 +3008,13 @@
         <v>45831</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="10">
         <v>10</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I25" s="13">
         <v>10</v>
@@ -2858,17 +3023,17 @@
         <v>45831</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="8">
         <v>45836</v>
       </c>
       <c r="N25" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O25" s="8"/>
-      <c r="Q25" s="55">
+      <c r="Q25" s="54">
         <v>45826</v>
       </c>
     </row>
@@ -2882,7 +3047,7 @@
         <v>06/25Б-24</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="8">
         <v>45819</v>
@@ -2891,33 +3056,33 @@
         <v>45819</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" s="10">
         <v>19.71</v>
       </c>
-      <c r="H26" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>44</v>
+      <c r="H26" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M26" s="8">
         <v>45826</v>
       </c>
       <c r="N26" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="48">
@@ -2930,7 +3095,7 @@
         <v>06/25Б-25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="8">
         <v>45828</v>
@@ -2939,33 +3104,33 @@
         <v>45828</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="10">
         <v>21.3</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="29" t="s">
         <v>143</v>
-      </c>
-      <c r="I27" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>144</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M27" s="8">
         <v>45835</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="45">
@@ -2978,7 +3143,7 @@
         <v>06/25Б-26</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="8">
         <v>45813</v>
@@ -2987,33 +3152,33 @@
         <v>45813</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="10">
         <v>20</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="I28" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>135</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M28" s="8">
         <v>45820</v>
       </c>
       <c r="N28" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c r="P28" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="45">
@@ -3026,7 +3191,7 @@
         <v>06/25Б-27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="8">
         <v>45825</v>
@@ -3035,13 +3200,13 @@
         <v>45825</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" s="10">
         <v>11.49</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I29" s="13">
         <v>12</v>
@@ -3051,17 +3216,17 @@
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M29" s="8">
         <v>45832</v>
       </c>
       <c r="N29" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c r="P29" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="45">
@@ -3074,7 +3239,7 @@
         <v>06/25Б-28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="8">
         <v>45808</v>
@@ -3083,7 +3248,7 @@
         <v>45808</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G30" s="10">
         <v>34.979999999999997</v>
@@ -3099,17 +3264,17 @@
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M30" s="8">
         <v>45815</v>
       </c>
       <c r="N30" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c r="P30" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="45">
@@ -3122,7 +3287,7 @@
         <v>06/25Б-29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="8">
         <v>45825</v>
@@ -3131,7 +3296,7 @@
         <v>45825</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G31" s="10">
         <v>34.979999999999997</v>
@@ -3147,17 +3312,17 @@
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M31" s="8">
         <v>45832</v>
       </c>
       <c r="N31" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c r="P31" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="45">
@@ -3170,7 +3335,7 @@
         <v>06/25Б-30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="8">
         <v>45808</v>
@@ -3179,7 +3344,7 @@
         <v>45808</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G32" s="10">
         <v>37.5</v>
@@ -3195,17 +3360,17 @@
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M32" s="8">
         <v>45815</v>
       </c>
       <c r="N32" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="45">
@@ -3217,8 +3382,8 @@
         <f t="shared" si="7"/>
         <v>06/25Б-31</v>
       </c>
-      <c r="C33" s="41" t="s">
-        <v>108</v>
+      <c r="C33" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="D33" s="8">
         <v>45819</v>
@@ -3227,29 +3392,33 @@
         <v>45819</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G33" s="10">
         <v>20.41</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="I33" s="43" t="s">
-        <v>139</v>
-      </c>
       <c r="J33" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="8"/>
+      <c r="L33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" s="8">
+        <v>45826</v>
+      </c>
       <c r="N33" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c r="P33" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="45">
@@ -3262,7 +3431,7 @@
         <v>06/25Б-32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="8">
         <v>45828</v>
@@ -3271,7 +3440,7 @@
         <v>45828</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G34" s="10">
         <v>35.33</v>
@@ -3287,17 +3456,17 @@
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M34" s="8">
         <v>45835</v>
       </c>
       <c r="N34" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="45">
@@ -3310,7 +3479,7 @@
         <v>06/25Б-33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" s="8">
         <v>45818</v>
@@ -3319,13 +3488,13 @@
         <v>45818</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G35" s="10">
         <v>0.85</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I35" s="13">
         <v>2</v>
@@ -3335,7 +3504,7 @@
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M35" s="8">
         <v>45825</v>
@@ -3345,7 +3514,7 @@
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="45">
@@ -3358,7 +3527,7 @@
         <v>06/25Б-34</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8">
         <v>45820</v>
@@ -3367,13 +3536,13 @@
         <v>45820</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" s="10">
         <v>0.92</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I36" s="13">
         <v>2</v>
@@ -3383,17 +3552,17 @@
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M36" s="8">
         <v>45827</v>
       </c>
       <c r="N36" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O36" s="8"/>
       <c r="P36" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="45">
@@ -3405,13 +3574,13 @@
         <f t="shared" si="7"/>
         <v>06/25Б-35</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>110</v>
+      <c r="C37" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G37" s="10">
         <v>2.52</v>
@@ -3423,11 +3592,11 @@
       <c r="L37" s="12"/>
       <c r="M37" s="8"/>
       <c r="N37" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="45">
@@ -3440,7 +3609,7 @@
         <v>06/25Б-36</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8">
         <v>45822</v>
@@ -3449,13 +3618,13 @@
         <v>45822</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G38" s="10">
         <v>1.44</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I38" s="13">
         <v>2</v>
@@ -3465,7 +3634,7 @@
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M38" s="8">
         <v>45829</v>
@@ -3475,7 +3644,7 @@
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="45">
@@ -3488,7 +3657,7 @@
         <v>06/25Б-37</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8">
         <v>45812</v>
@@ -3497,13 +3666,13 @@
         <v>45812</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="10">
         <v>1.02</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I39" s="13">
         <v>2</v>
@@ -3513,7 +3682,7 @@
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M39" s="8">
         <v>45819</v>
@@ -3523,7 +3692,7 @@
       </c>
       <c r="O39" s="8"/>
       <c r="P39" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="45">
@@ -3536,7 +3705,7 @@
         <v>06/25Б-38</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="8">
         <v>45818</v>
@@ -3545,13 +3714,13 @@
         <v>45818</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G40" s="10">
         <v>1.1000000000000001</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I40" s="13">
         <v>2</v>
@@ -3561,7 +3730,7 @@
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M40" s="8">
         <v>45825</v>
@@ -3571,42 +3740,42 @@
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="52" customFormat="1" ht="45">
-      <c r="A41" s="44">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="51" customFormat="1" ht="45">
+      <c r="A41" s="43">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B41" s="45" t="str">
+      <c r="B41" s="44" t="str">
         <f t="shared" ref="B41:B42" si="9">CONCATENATE(B$2,"-",A41)</f>
         <v>06/25Б-39</v>
       </c>
-      <c r="C41" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="49">
+      <c r="C41" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="48">
         <f>2.34*2</f>
         <v>4.68</v>
       </c>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="O41" s="47"/>
-      <c r="P41" s="51" t="s">
-        <v>58</v>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="O41" s="46"/>
+      <c r="P41" s="50" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="45">
@@ -3618,29 +3787,35 @@
         <f t="shared" si="9"/>
         <v>06/25Б-40</v>
       </c>
-      <c r="C42" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="8">
+        <v>45831</v>
+      </c>
+      <c r="E42" s="8">
+        <v>45831</v>
+      </c>
       <c r="F42" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G42" s="10">
         <v>122.96</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="8"/>
       <c r="N42" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="42">
@@ -3652,13 +3827,13 @@
         <f t="shared" ref="B43" si="10">CONCATENATE(B$2,"-",A43)</f>
         <v>06/25Б-41</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>120</v>
+      <c r="C43" s="41" t="s">
+        <v>119</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" s="10">
         <v>14.25</v>
@@ -3670,11 +3845,11 @@
       <c r="L43" s="12"/>
       <c r="M43" s="8"/>
       <c r="N43" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3698,10 +3873,785 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263AE4BA-C209-4872-856D-E38A37711867}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="59"/>
+      <c r="B2" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="59"/>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="45">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52" t="str">
+        <f>CONCATENATE(B$2,"-",A3)</f>
+        <v>06/25А-1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="20">
+        <v>45819</v>
+      </c>
+      <c r="E3" s="20">
+        <v>45824</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="20">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="45">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <f t="shared" ref="B4:B22" si="0">CONCATENATE(B$2,"-",A4)</f>
+        <v>06/25А-2</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="20">
+        <v>45819</v>
+      </c>
+      <c r="E4" s="20">
+        <v>45824</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="8">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="45">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-3</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="20">
+        <v>45819</v>
+      </c>
+      <c r="E5" s="20">
+        <v>45824</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="8">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="45">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-4</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="20">
+        <v>45817</v>
+      </c>
+      <c r="E6" s="20">
+        <v>45822</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="45">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-5</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="20">
+        <v>45817</v>
+      </c>
+      <c r="E7" s="20">
+        <v>45822</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="45">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-6</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="20">
+        <v>45817</v>
+      </c>
+      <c r="E8" s="20">
+        <v>45822</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="45">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-7</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="20">
+        <v>45817</v>
+      </c>
+      <c r="E9" s="20">
+        <v>45822</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="8">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="45">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-8</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="20">
+        <v>45815</v>
+      </c>
+      <c r="E10" s="20">
+        <v>45820</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="45">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="20">
+        <v>45813</v>
+      </c>
+      <c r="E11" s="20">
+        <v>45818</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="8">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="45">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-10</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="20">
+        <v>45813</v>
+      </c>
+      <c r="E12" s="20">
+        <v>45818</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="45">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-11</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="20">
+        <v>45813</v>
+      </c>
+      <c r="E13" s="20">
+        <v>45818</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="45">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-13</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="20">
+        <v>45824</v>
+      </c>
+      <c r="E14" s="20">
+        <v>45829</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="45">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-14</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="20">
+        <v>45825</v>
+      </c>
+      <c r="E15" s="20">
+        <v>45830</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="45">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-15</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="20">
+        <v>45823</v>
+      </c>
+      <c r="E16" s="20">
+        <v>45828</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="8">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="45">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-16</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="20">
+        <v>45822</v>
+      </c>
+      <c r="E17" s="20">
+        <v>45827</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="45">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-17</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="20">
+        <v>45811</v>
+      </c>
+      <c r="E18" s="20">
+        <v>45816</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="45">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-18</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="20">
+        <v>45823</v>
+      </c>
+      <c r="E19" s="20">
+        <v>45828</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="45">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-20</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="20">
+        <v>45825</v>
+      </c>
+      <c r="E20" s="20">
+        <v>45830</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" ht="45">
+      <c r="A21" s="6">
+        <v>22</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-22</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="20">
+        <v>45825</v>
+      </c>
+      <c r="E21" s="20">
+        <v>45830</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="8">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="45">
+      <c r="A22" s="6">
+        <v>23</v>
+      </c>
+      <c r="B22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>06/25А-23</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="20">
+        <v>45825</v>
+      </c>
+      <c r="E22" s="20">
+        <v>45830</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="8">
+        <v>45826</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7578CEC-7EAB-4A13-B001-D49F0091844C}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
@@ -3721,7 +4671,7 @@
     <col min="12" max="12" width="7.28515625" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3750,7 +4700,7 @@
       <c r="I1" s="65"/>
       <c r="J1" s="66"/>
       <c r="K1" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="65"/>
       <c r="M1" s="65"/>
@@ -3802,11 +4752,11 @@
       <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>148</v>
+      <c r="B3" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="20">
         <v>45825</v>
@@ -3815,7 +4765,7 @@
         <v>45825</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="22">
         <v>17</v>
@@ -3847,11 +4797,11 @@
       <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>149</v>
+      <c r="B4" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="20">
         <v>45825</v>
@@ -3860,7 +4810,7 @@
         <v>45825</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="22">
         <v>122.7</v>
@@ -3892,8 +4842,8 @@
       <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>150</v>
+      <c r="B5" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>21</v>
@@ -3905,7 +4855,7 @@
         <v>45825</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="22">
         <v>158</v>
@@ -3937,11 +4887,11 @@
       <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>151</v>
+      <c r="B6" s="52" t="s">
+        <v>150</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="20">
         <v>45823</v>
@@ -3950,7 +4900,7 @@
         <v>45823</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="22">
         <v>8</v>
@@ -3982,11 +4932,11 @@
       <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>152</v>
+      <c r="B7" s="52" t="s">
+        <v>151</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="20">
         <v>45823</v>
@@ -3995,7 +4945,7 @@
         <v>45823</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="22">
         <v>5</v>
@@ -4025,11 +4975,11 @@
       <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>153</v>
+      <c r="B8" s="52" t="s">
+        <v>152</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="20">
         <v>45823</v>
@@ -4038,7 +4988,7 @@
         <v>45823</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="22">
         <v>13</v>
@@ -4070,11 +5020,11 @@
       <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>154</v>
+      <c r="B9" s="52" t="s">
+        <v>153</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="20">
         <v>45823</v>
@@ -4083,7 +5033,7 @@
         <v>45823</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="22">
         <v>12</v>
@@ -4115,11 +5065,11 @@
       <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>155</v>
+      <c r="B10" s="52" t="s">
+        <v>154</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="20">
         <v>45821</v>
@@ -4128,7 +5078,7 @@
         <v>45821</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="22">
         <v>18</v>
@@ -4160,11 +5110,11 @@
       <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>156</v>
+      <c r="B11" s="52" t="s">
+        <v>155</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="20">
         <v>45819</v>
@@ -4173,13 +5123,13 @@
         <v>45819</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="22">
         <v>7</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="23">
         <v>11.5</v>
@@ -4188,14 +5138,14 @@
         <v>45819</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="37"/>
       <c r="M11" s="25">
         <v>45824</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O11" s="20"/>
     </row>
@@ -4203,11 +5153,11 @@
       <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>157</v>
+      <c r="B12" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="20">
         <v>45819</v>
@@ -4216,13 +5166,13 @@
         <v>45819</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="22">
         <v>6</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="23">
         <v>11.5</v>
@@ -4231,7 +5181,7 @@
         <v>45819</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="37"/>
       <c r="M12" s="25">
@@ -4246,11 +5196,11 @@
       <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>158</v>
+      <c r="B13" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="20">
         <v>45819</v>
@@ -4259,22 +5209,22 @@
         <v>45819</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="22">
         <v>13.790000000000001</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="25">
@@ -4291,11 +5241,11 @@
       <c r="A14" s="18">
         <v>12</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>160</v>
+      <c r="B14" s="52" t="s">
+        <v>159</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="20">
         <v>45825</v>
@@ -4304,7 +5254,7 @@
         <v>45826</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="22">
         <v>32</v>
@@ -4320,7 +5270,7 @@
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" s="25">
         <v>45832</v>
@@ -4334,11 +5284,11 @@
       <c r="A15" s="18">
         <v>13</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>161</v>
+      <c r="B15" s="52" t="s">
+        <v>160</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="20">
         <v>45830</v>
@@ -4347,7 +5297,7 @@
         <v>45830</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="22">
         <v>39</v>
@@ -4362,14 +5312,14 @@
         <v>45830</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" s="37"/>
       <c r="M15" s="25">
         <v>45835</v>
       </c>
       <c r="N15" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O15" s="20">
         <v>45827</v>
@@ -4379,11 +5329,11 @@
       <c r="A16" s="18">
         <v>14</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>162</v>
+      <c r="B16" s="52" t="s">
+        <v>161</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="20">
         <v>45831</v>
@@ -4392,29 +5342,29 @@
         <v>45831</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="22">
         <v>22</v>
       </c>
       <c r="H16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="J16" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="K16" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="25">
         <v>45836</v>
       </c>
       <c r="N16" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O16" s="20">
         <v>45827</v>
@@ -4424,11 +5374,11 @@
       <c r="A17" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>163</v>
+      <c r="B17" s="52" t="s">
+        <v>162</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="20">
         <v>45829</v>
@@ -4437,7 +5387,7 @@
         <v>45830</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="22">
         <v>18</v>
@@ -4452,14 +5402,14 @@
         <v>45830</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L17" s="37"/>
       <c r="M17" s="25">
         <v>45835</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O17" s="20">
         <v>45828</v>
@@ -4469,11 +5419,11 @@
       <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>164</v>
+      <c r="B18" s="52" t="s">
+        <v>163</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="20">
         <v>45828</v>
@@ -4482,7 +5432,7 @@
         <v>45828</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="22">
         <v>36</v>
@@ -4497,14 +5447,14 @@
         <v>45828</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="25">
         <v>45833</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O18" s="20"/>
     </row>
@@ -4512,11 +5462,11 @@
       <c r="A19" s="18">
         <v>17</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>165</v>
+      <c r="B19" s="52" t="s">
+        <v>164</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="20">
         <v>45817</v>
@@ -4525,13 +5475,13 @@
         <v>45817</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="22">
         <v>2</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" s="23">
         <v>2</v>
@@ -4540,14 +5490,14 @@
         <v>45817</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="25">
         <v>45822</v>
       </c>
       <c r="N19" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O19" s="20"/>
     </row>
@@ -4555,11 +5505,11 @@
       <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="53" t="s">
-        <v>166</v>
+      <c r="B20" s="52" t="s">
+        <v>165</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="20">
         <v>45829</v>
@@ -4568,13 +5518,13 @@
         <v>45829</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="22">
         <v>4.4000000000000004</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" s="23">
         <v>4.5</v>
@@ -4583,14 +5533,14 @@
         <v>45829</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="25">
         <v>45834</v>
       </c>
       <c r="N20" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="20"/>
     </row>
@@ -4598,11 +5548,11 @@
       <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="53" t="s">
-        <v>167</v>
+      <c r="B21" s="52" t="s">
+        <v>166</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="20">
         <v>45821</v>
@@ -4611,7 +5561,7 @@
         <v>45821</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="22">
         <v>61</v>
@@ -4627,7 +5577,7 @@
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" s="25">
         <v>45828</v>
@@ -4641,11 +5591,11 @@
       <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="53" t="s">
-        <v>168</v>
+      <c r="B22" s="52" t="s">
+        <v>167</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="20">
         <v>45831</v>
@@ -4654,7 +5604,7 @@
         <v>45832</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="22">
         <v>37</v>
@@ -4669,14 +5619,14 @@
         <v>45832</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="25">
         <v>45838</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O22" s="20"/>
     </row>
@@ -4684,11 +5634,11 @@
       <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="53" t="s">
-        <v>169</v>
+      <c r="B23" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="20">
         <v>45819</v>
@@ -4697,29 +5647,29 @@
         <v>45819</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="22">
         <v>21</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="21"/>
       <c r="L23" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M23" s="25">
         <v>45826</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O23" s="20"/>
     </row>
@@ -4727,11 +5677,11 @@
       <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="53" t="s">
-        <v>170</v>
+      <c r="B24" s="52" t="s">
+        <v>169</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="20">
         <v>45831</v>
@@ -4740,7 +5690,7 @@
         <v>45831</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="22">
         <v>97</v>
@@ -4755,7 +5705,7 @@
         <v>45831</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="25">
@@ -4772,11 +5722,11 @@
       <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>171</v>
+      <c r="B25" s="52" t="s">
+        <v>170</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="20">
         <v>45831</v>
@@ -4785,13 +5735,13 @@
         <v>45831</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="22">
         <v>10</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I25" s="23">
         <v>10</v>
@@ -4800,14 +5750,14 @@
         <v>45831</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="25">
         <v>45836</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O25" s="20"/>
     </row>
@@ -4815,11 +5765,11 @@
       <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="53" t="s">
-        <v>172</v>
+      <c r="B26" s="52" t="s">
+        <v>171</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="20">
         <v>45819</v>
@@ -4828,29 +5778,29 @@
         <v>45819</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" s="22">
         <v>19.71</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M26" s="25">
         <v>45826</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O26" s="20"/>
     </row>
@@ -4858,11 +5808,11 @@
       <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="53" t="s">
-        <v>173</v>
+      <c r="B27" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="20">
         <v>45828</v>
@@ -4871,29 +5821,29 @@
         <v>45828</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="22">
         <v>21.3</v>
       </c>
       <c r="H27" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M27" s="25">
         <v>45835</v>
       </c>
       <c r="N27" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="20"/>
     </row>
@@ -4901,11 +5851,11 @@
       <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="53" t="s">
-        <v>174</v>
+      <c r="B28" s="52" t="s">
+        <v>173</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20">
         <v>45813</v>
@@ -4914,29 +5864,29 @@
         <v>45813</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="22">
         <v>20</v>
       </c>
       <c r="H28" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M28" s="25">
         <v>45820</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="20"/>
     </row>
@@ -4944,11 +5894,11 @@
       <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="53" t="s">
-        <v>175</v>
+      <c r="B29" s="52" t="s">
+        <v>174</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="20">
         <v>45825</v>
@@ -4957,13 +5907,13 @@
         <v>45825</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" s="22">
         <v>11.49</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I29" s="23">
         <v>12</v>
@@ -4973,13 +5923,13 @@
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M29" s="25">
         <v>45832</v>
       </c>
       <c r="N29" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="20"/>
     </row>
@@ -4987,11 +5937,11 @@
       <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>176</v>
+      <c r="B30" s="52" t="s">
+        <v>175</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="20">
         <v>45808</v>
@@ -5000,7 +5950,7 @@
         <v>45808</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G30" s="22">
         <v>34.979999999999997</v>
@@ -5016,13 +5966,13 @@
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M30" s="25">
         <v>45815</v>
       </c>
       <c r="N30" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="20"/>
     </row>
@@ -5030,11 +5980,11 @@
       <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="53" t="s">
-        <v>177</v>
+      <c r="B31" s="52" t="s">
+        <v>176</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="20">
         <v>45825</v>
@@ -5043,7 +5993,7 @@
         <v>45825</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G31" s="22">
         <v>34.979999999999997</v>
@@ -5059,13 +6009,13 @@
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M31" s="25">
         <v>45832</v>
       </c>
       <c r="N31" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O31" s="20"/>
     </row>
@@ -5073,11 +6023,11 @@
       <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="53" t="s">
-        <v>178</v>
+      <c r="B32" s="52" t="s">
+        <v>177</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="20">
         <v>45808</v>
@@ -5086,7 +6036,7 @@
         <v>45808</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G32" s="22">
         <v>37.5</v>
@@ -5102,13 +6052,13 @@
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M32" s="25">
         <v>45815</v>
       </c>
       <c r="N32" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O32" s="20"/>
     </row>
@@ -5116,11 +6066,11 @@
       <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="53" t="s">
-        <v>179</v>
+      <c r="B33" s="52" t="s">
+        <v>178</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="20">
         <v>45819</v>
@@ -5129,25 +6079,29 @@
         <v>45819</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G33" s="22">
         <v>20.41</v>
       </c>
       <c r="H33" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="I33" s="23" t="s">
-        <v>139</v>
-      </c>
       <c r="J33" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33" s="21"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="25"/>
+      <c r="L33" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" s="25">
+        <v>45826</v>
+      </c>
       <c r="N33" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O33" s="20"/>
     </row>
@@ -5155,11 +6109,11 @@
       <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="53" t="s">
-        <v>180</v>
+      <c r="B34" s="52" t="s">
+        <v>179</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="20">
         <v>45828</v>
@@ -5168,7 +6122,7 @@
         <v>45828</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G34" s="22">
         <v>35.33</v>
@@ -5184,13 +6138,13 @@
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M34" s="25">
         <v>45835</v>
       </c>
       <c r="N34" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O34" s="20"/>
     </row>
@@ -5198,11 +6152,11 @@
       <c r="A35" s="18">
         <v>33</v>
       </c>
-      <c r="B35" s="53" t="s">
-        <v>181</v>
+      <c r="B35" s="52" t="s">
+        <v>180</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" s="20">
         <v>45818</v>
@@ -5211,13 +6165,13 @@
         <v>45818</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G35" s="22">
         <v>0.85</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I35" s="23">
         <v>2</v>
@@ -5227,7 +6181,7 @@
       </c>
       <c r="K35" s="21"/>
       <c r="L35" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M35" s="25">
         <v>45825</v>
@@ -5241,11 +6195,11 @@
       <c r="A36" s="18">
         <v>34</v>
       </c>
-      <c r="B36" s="53" t="s">
-        <v>182</v>
+      <c r="B36" s="52" t="s">
+        <v>181</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="20">
         <v>45820</v>
@@ -5254,13 +6208,13 @@
         <v>45820</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" s="22">
         <v>0.92</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I36" s="23">
         <v>2</v>
@@ -5270,13 +6224,13 @@
       </c>
       <c r="K36" s="21"/>
       <c r="L36" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M36" s="25">
         <v>45827</v>
       </c>
       <c r="N36" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O36" s="20"/>
     </row>
@@ -5284,16 +6238,16 @@
       <c r="A37" s="18">
         <v>35</v>
       </c>
-      <c r="B37" s="53" t="s">
-        <v>183</v>
+      <c r="B37" s="52" t="s">
+        <v>182</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G37" s="22">
         <v>2.52</v>
@@ -5305,7 +6259,7 @@
       <c r="L37" s="37"/>
       <c r="M37" s="25"/>
       <c r="N37" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O37" s="20"/>
     </row>
@@ -5313,11 +6267,11 @@
       <c r="A38" s="18">
         <v>36</v>
       </c>
-      <c r="B38" s="53" t="s">
-        <v>184</v>
+      <c r="B38" s="52" t="s">
+        <v>183</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="20">
         <v>45822</v>
@@ -5326,13 +6280,13 @@
         <v>45822</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G38" s="22">
         <v>1.44</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I38" s="23">
         <v>2</v>
@@ -5342,7 +6296,7 @@
       </c>
       <c r="K38" s="21"/>
       <c r="L38" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M38" s="25">
         <v>45829</v>
@@ -5356,11 +6310,11 @@
       <c r="A39" s="18">
         <v>37</v>
       </c>
-      <c r="B39" s="53" t="s">
-        <v>185</v>
+      <c r="B39" s="52" t="s">
+        <v>184</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="20">
         <v>45812</v>
@@ -5369,13 +6323,13 @@
         <v>45812</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="22">
         <v>1.02</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I39" s="23">
         <v>2</v>
@@ -5385,7 +6339,7 @@
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M39" s="25">
         <v>45819</v>
@@ -5399,11 +6353,11 @@
       <c r="A40" s="18">
         <v>38</v>
       </c>
-      <c r="B40" s="53" t="s">
-        <v>186</v>
+      <c r="B40" s="52" t="s">
+        <v>185</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="20">
         <v>45818</v>
@@ -5412,13 +6366,13 @@
         <v>45818</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G40" s="22">
         <v>1.1000000000000001</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I40" s="23">
         <v>2</v>
@@ -5428,7 +6382,7 @@
       </c>
       <c r="K40" s="21"/>
       <c r="L40" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M40" s="25">
         <v>45825</v>
@@ -5442,16 +6396,16 @@
       <c r="A41" s="18">
         <v>39</v>
       </c>
-      <c r="B41" s="53" t="s">
-        <v>187</v>
+      <c r="B41" s="52" t="s">
+        <v>186</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" s="22">
         <v>4.68</v>
@@ -5463,7 +6417,7 @@
       <c r="L41" s="37"/>
       <c r="M41" s="25"/>
       <c r="N41" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O41" s="20"/>
     </row>
@@ -5471,28 +6425,34 @@
       <c r="A42" s="18">
         <v>40</v>
       </c>
-      <c r="B42" s="53" t="s">
-        <v>188</v>
+      <c r="B42" s="52" t="s">
+        <v>187</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
+        <v>113</v>
+      </c>
+      <c r="D42" s="20">
+        <v>45831</v>
+      </c>
+      <c r="E42" s="20">
+        <v>45831</v>
+      </c>
       <c r="F42" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G42" s="22">
         <v>122.96</v>
       </c>
-      <c r="H42" s="23"/>
+      <c r="H42" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="I42" s="23"/>
       <c r="J42" s="24"/>
       <c r="K42" s="21"/>
       <c r="L42" s="37"/>
       <c r="M42" s="25"/>
       <c r="N42" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O42" s="20"/>
     </row>
@@ -5500,16 +6460,16 @@
       <c r="A43" s="18">
         <v>41</v>
       </c>
-      <c r="B43" s="53" t="s">
-        <v>189</v>
+      <c r="B43" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" s="22">
         <v>14.25</v>
@@ -5521,7 +6481,7 @@
       <c r="L43" s="37"/>
       <c r="M43" s="25"/>
       <c r="N43" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O43" s="20"/>
     </row>
@@ -5538,6 +6498,760 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B3AB2A-40C6-4638-9D97-DC900C5CB663}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="59"/>
+      <c r="B2" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="59"/>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="45">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="20">
+        <v>45819</v>
+      </c>
+      <c r="E3" s="20">
+        <v>45824</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="20">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="45">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="20">
+        <v>45819</v>
+      </c>
+      <c r="E4" s="20">
+        <v>45824</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="8">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="45">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="20">
+        <v>45819</v>
+      </c>
+      <c r="E5" s="20">
+        <v>45824</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="8">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="45">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="20">
+        <v>45817</v>
+      </c>
+      <c r="E6" s="20">
+        <v>45822</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="45">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="20">
+        <v>45817</v>
+      </c>
+      <c r="E7" s="20">
+        <v>45822</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="45">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="20">
+        <v>45817</v>
+      </c>
+      <c r="E8" s="20">
+        <v>45822</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="45">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="20">
+        <v>45817</v>
+      </c>
+      <c r="E9" s="20">
+        <v>45822</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="8">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="45">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="20">
+        <v>45815</v>
+      </c>
+      <c r="E10" s="20">
+        <v>45820</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="45">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="20">
+        <v>45813</v>
+      </c>
+      <c r="E11" s="20">
+        <v>45818</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="8">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="45">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="20">
+        <v>45813</v>
+      </c>
+      <c r="E12" s="20">
+        <v>45818</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="45">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="20">
+        <v>45813</v>
+      </c>
+      <c r="E13" s="20">
+        <v>45818</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="45">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="20">
+        <v>45824</v>
+      </c>
+      <c r="E14" s="20">
+        <v>45829</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="45">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="20">
+        <v>45825</v>
+      </c>
+      <c r="E15" s="20">
+        <v>45830</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="45">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="20">
+        <v>45823</v>
+      </c>
+      <c r="E16" s="20">
+        <v>45828</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="8">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="45">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="20">
+        <v>45822</v>
+      </c>
+      <c r="E17" s="20">
+        <v>45827</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="45">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="20">
+        <v>45811</v>
+      </c>
+      <c r="E18" s="20">
+        <v>45816</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="45">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="20">
+        <v>45823</v>
+      </c>
+      <c r="E19" s="20">
+        <v>45828</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="45">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="20">
+        <v>45825</v>
+      </c>
+      <c r="E20" s="20">
+        <v>45830</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" ht="45">
+      <c r="A21" s="6">
+        <v>22</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="20">
+        <v>45825</v>
+      </c>
+      <c r="E21" s="20">
+        <v>45830</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="8">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="45">
+      <c r="A22" s="6">
+        <v>23</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="20">
+        <v>45825</v>
+      </c>
+      <c r="E22" s="20">
+        <v>45830</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="8">
+        <v>45826</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/я. Бетон (Июнь).xlsx
+++ b/я. Бетон (Июнь).xlsx
@@ -5,21 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saratov\Desktop\Рудаков\my\ТМГ\Июнь\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\AOCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61160552-AF10-4501-A137-D35BD0A35262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D65686B-96EF-494A-84D3-BACF47E97F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Бетон" sheetId="1" r:id="rId1"/>
     <sheet name="Армир" sheetId="3" r:id="rId2"/>
-    <sheet name="Бетон для АОСР" sheetId="2" r:id="rId3"/>
-    <sheet name="Армир для АОСР" sheetId="4" r:id="rId4"/>
+    <sheet name="ГИ" sheetId="5" r:id="rId3"/>
+    <sheet name="ГИ для АОСР" sheetId="6" r:id="rId4"/>
+    <sheet name="Бетон для АОСР" sheetId="2" r:id="rId5"/>
+    <sheet name="Армир для АОСР" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Бетон!$A$1:$P$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ГИ!$A$1:$O$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="329">
   <si>
     <t>№</t>
   </si>
@@ -890,12 +893,387 @@
   <si>
     <t>06/25А-23</t>
   </si>
+  <si>
+    <t>06/25Г</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции стен
+в осях: 34/1(+0.015) - 37 / А
+с ПК98+50.501 по ПК98+64.121 с отм. 126.457 до отм.129.888</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции стен
+в осях: 34/1(+0.015) - 37 / А
+с ПК98+50.501 по ПК98+64.121 с отм. 126.457 до отм.129.888</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции стен
+в осях: 34/1(+0.015) - 37 / А
+с ПК98+50.501 по ПК98+64.121 с отм. 126.457 до отм.129.888</t>
+  </si>
+  <si>
+    <t>Устройство защитного слоя гидроизоляции пенополистиролом
+в осях: 34/1(+0.015) - 37 / А
+с ПК98+50.501 по ПК98+64.121 с отм. 126.457 до отм.129.888</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции стен
+в осях: 34/1(+0.015) - 41 / Н
+с ПК98+26.901 по ПК98+64.121 на отм. 126.457 до 129.958</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции стен
+в осях: 34/1(+0.015) - 41 / Н
+с ПК98+26.901 по ПК98+64.121 на отм. 126.457 до 129.958</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции стен
+в осях: 34/1(+0.015) - 41 / Н
+с ПК98+26.901 по ПК98+64.121 на отм. 126.457 до 129.958</t>
+  </si>
+  <si>
+    <t>Устройство защитного слоя гидроизоляции пенополистиролом
+в осях: 34/1(+0.015) - 41 / Н
+с ПК98+26.901 по ПК98+64.121 на отм. 126.457 до 129.958</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя пароизоляции по покрытию
+в осях: 21/1(+0.015) -24(-2.700) /Е(-1.250) - Н(-2.750)
+с ПК99+44.391 по ПК99+61.676 на отм. 137.045 до 137.774</t>
+  </si>
+  <si>
+    <t>Устройство утеплителя по покрытию
+в осях: 21/1(+0.015) -24(-2.700) /Е(-1.250) - Н(-2.750)
+с ПК99+44.391 по ПК99+61.676 на отм. 137.049 до 137.874</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции по покрытию
+в осях: 21/1(+0.015) -24(-2.700) /Е(-1.250) - Н(-2.750)
+с ПК99+44.391 по ПК99+61.676 на отм. 137.179 до 137.908</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции по покрытию
+в осях: 21/1(+0.015) -24(-2.700) /Е(-1.250) - Н(-2.750)
+с ПК99+44.391 по ПК99+61.676 на отм. 137.183 до 137.912</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции по покрытию
+в осях: 21/1(+0.015) -24(-2.700) /Е(-1.250) - Н(-2.750)
+с ПК99+44.391 по ПК99+61.676 на отм. 137.187 до 137.916</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции покрытия
+в осях: 21/1(+0.015) -24(-2.700) /А - Е(-1.250)
+с ПК99+44.391 по ПК99+61.676 на отм. 136.980 до 137.049</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции покрытия
+в осях: 21/1(+0.015) -24(-2.700) /А - Е(-1.250)
+с ПК99+44.391 по ПК99+61.676 на отм. 136.984 до 137.053</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции покрытия
+в осях: 21/1(+0.015) -24(-2.700) /А - Е(-1.250)
+с ПК99+44.391 по ПК99+61.676 на отм. 136.988 до 137.057</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя пароизоляции по покрытию
+в осях: 24(-2.700) -27/1(-0.015) /Е(-1.250)- Н(-2.750)
+с ПК99+13.706 по ПК99+44.391 на отм. 137.045 до 137.774</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции по покрытию
+в осях: 24(-2.700) -27/1(-0.015) /Е(-1.250)- Н(-2.750)
+с ПК99+13.706 по ПК99+44.391 на отм. 137.179 до 137.908</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции по покрытию
+в осях: 24(-2.700) -27/1(-0.015) /Е(-1.250)- Н(-2.750)
+с ПК99+13.706 по ПК99+44.391 на отм. 137.183 до 137.912</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции по покрытию
+в осях: 24(-2.700) -27/1(-0.015) /Е(-1.250)- Н(-2.750)
+с ПК99+13.706 по ПК99+44.391 на отм. 137.187 до 137.916</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции покрытия
+в осях: 24(-2.700) -27/1(-0.015) /А - Е(-1.250)
+с ПК99+13.706 по ПК99+44.391 на отм. 136.980 до 137.049</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции покрытия
+в осях: 24(-2.700) -27/1(-0.015) /А - Е(-1.250)
+с ПК99+13.706 по ПК99+44.391 на отм. 136.984 до 137.053</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции покрытия
+в осях: 24(-2.700) -27/1(-0.015) /А - Е(-1.250)
+с ПК99+13.706 по ПК99+44.391 на отм. 136.988 до 137.057</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции покрытия
+в осях: 31(+2.700) -34/1(-0.015) /А - Н
+с ПК98+64.151 по ПК98+82.991 на отм. 136.984 до 137.188</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции покрытия
+в осях: 31(+2.700) -34/1(-0.015) /А - Н
+с ПК98+64.151 по ПК98+82.991 на отм. 136.988 до 137.192</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции стен
+в осях: 41(+0.500) - 42(-1.800) / А(-0.030) - А(-3.900)
+с ПК98+22.116 по ПК98+26.416 на отм. 118.928 до 124.928</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции стен
+в осях: 41(+0.500) - 42(-1.800) / А(-0.030) - А(-3.900)
+с ПК98+22.116 по ПК98+26.416 на отм. 118.928 до 124.928</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции стен
+в осях: 41(+0.500) - 42(-1.800) / А(-0.030) - А(-3.900)
+с ПК98+22.116 по ПК98+26.416 на отм. 118.928 до 124.928</t>
+  </si>
+  <si>
+    <t>Устройство защитного слоя гидроизоляции пенополистиролом
+в осях: 41(+0.500) - 42(-1.800) / А(-0.030) - А(-3.900)
+с ПК98+22.116 по ПК98+26.416 на отм. 118.928 до 124.928</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции в погрузочной шахте
+в осях: 41(-0.675) - 42(-0.575) / А(-0.030) - А(-5.100)
+с ПК98+20.886 по ПК98+27.586 на отм. 116.668 до 116.672</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции в погрузочной шахте
+в осях: 41(-0.675) - 42(-0.575) / А(-0.030) - А(-5.100)
+с ПК98+20.886 по ПК98+27.586 на отм. 116.672 до 116.676</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции в погрузочной шахте
+в осях: 41(-0.675) - 42(-0.575) / А(-0.030) - А(-5.100)
+с ПК98+20.886 по ПК98+27.586 на отм. 116.676 до 116.680</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции стен
+в осях: 33(+0.740) - 34/1(-0.015) / Н(+0.030) - Н(+3.250)
+с ПК98+64.151 по ПК98+68.951 на отм. 125.294 до 130.309</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции покрытия
+в осях: 31(+2.700) -34/1(-0.015) /А - Н
+с ПК98+64.151 по ПК98+82.991 на отм. 136.960 до 137.180</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции стен
+в осях: 33(+0.740) - 34/1(-0.015) / Н(+0.030) - Н(+3.250)
+с ПК98+64.151 по ПК98+68.951 на отм. 125.294 до 130.309</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции стен
+в осях: 33(+0.740) - 34/1(-0.015) / Н(+0.030) - Н(+3.250)
+с ПК98+64.151 по ПК98+68.951 на отм. 125.294 до 130.309</t>
+  </si>
+  <si>
+    <t>Устройство защитного слоя гидроизоляции пенополистиролом
+в осях: 33(+0.740) - 34/1(-0.015) / Н(+0.030) - Н(+3.250)
+с ПК98+64.151 по ПК98+68.951 на отм. 125.294 до 130.309</t>
+  </si>
+  <si>
+    <t>Устройство утеплителя по покрытию
+в осях: 24(-2.700) -27/1(-0.015) /Е(-1.250)- Н(-2.750)
+с ПК99+13.706 по ПК99+44.391 на отм. 137.049 до 137.878</t>
+  </si>
+  <si>
+    <t>Праймер битумный
+Гидроизоляция рулонная битмуно-полимерная</t>
+  </si>
+  <si>
+    <t>Гидроизоляция рулонная битмуно-полимерная</t>
+  </si>
+  <si>
+    <t>Устройство 2-го слоя гидроизоляции</t>
+  </si>
+  <si>
+    <t>Устройство 3-го слоя гидроизоляции</t>
+  </si>
+  <si>
+    <t>Устройство защитного слоя гидроизоляции</t>
+  </si>
+  <si>
+    <t>паспорт качества №27 от 15.05.2025
+паспорт качества №2 от 03.02.2025</t>
+  </si>
+  <si>
+    <t>паспорт качества №6 от 06.02.2025</t>
+  </si>
+  <si>
+    <t>Мастика битумно-полимерная
+Плиты пенополистирольные экструзионные</t>
+  </si>
+  <si>
+    <t>паспорт качества №275 от 04.12.2024
+паспорт качества №FZ000253062 от 19.05.2025</t>
+  </si>
+  <si>
+    <t>06/25Г-1</t>
+  </si>
+  <si>
+    <t>06/25Г-2</t>
+  </si>
+  <si>
+    <t>06/25Г-3</t>
+  </si>
+  <si>
+    <t>06/25Г-4</t>
+  </si>
+  <si>
+    <t>06/25Г-5</t>
+  </si>
+  <si>
+    <t>06/25Г-6</t>
+  </si>
+  <si>
+    <t>06/25Г-7</t>
+  </si>
+  <si>
+    <t>06/25Г-8</t>
+  </si>
+  <si>
+    <t>06/25Г-9</t>
+  </si>
+  <si>
+    <t>06/25Г-10</t>
+  </si>
+  <si>
+    <t>06/25Г-11</t>
+  </si>
+  <si>
+    <t>06/25Г-12</t>
+  </si>
+  <si>
+    <t>06/25Г-13</t>
+  </si>
+  <si>
+    <t>06/25Г-14</t>
+  </si>
+  <si>
+    <t>06/25Г-15</t>
+  </si>
+  <si>
+    <t>06/25Г-16</t>
+  </si>
+  <si>
+    <t>06/25Г-17</t>
+  </si>
+  <si>
+    <t>06/25Г-18</t>
+  </si>
+  <si>
+    <t>06/25Г-19</t>
+  </si>
+  <si>
+    <t>06/25Г-20</t>
+  </si>
+  <si>
+    <t>06/25Г-21</t>
+  </si>
+  <si>
+    <t>06/25Г-22</t>
+  </si>
+  <si>
+    <t>06/25Г-23</t>
+  </si>
+  <si>
+    <t>06/25Г-24</t>
+  </si>
+  <si>
+    <t>06/25Г-25</t>
+  </si>
+  <si>
+    <t>06/25Г-26</t>
+  </si>
+  <si>
+    <t>06/25Г-27</t>
+  </si>
+  <si>
+    <t>06/25Г-28</t>
+  </si>
+  <si>
+    <t>06/25Г-29</t>
+  </si>
+  <si>
+    <t>06/25Г-30</t>
+  </si>
+  <si>
+    <t>06/25Г-31</t>
+  </si>
+  <si>
+    <t>06/25Г-32</t>
+  </si>
+  <si>
+    <t>06/25Г-33</t>
+  </si>
+  <si>
+    <t>06/25Г-34</t>
+  </si>
+  <si>
+    <t>06/25Г-35</t>
+  </si>
+  <si>
+    <t>06/25Г-36</t>
+  </si>
+  <si>
+    <t>06/25Г-37</t>
+  </si>
+  <si>
+    <t>06/25Г-38</t>
+  </si>
+  <si>
+    <t>Праймер битумный
+Гидроизоляция рулонная битумно-полимерная</t>
+  </si>
+  <si>
+    <t>Гидроизоляция рулонная битумно-полимерная</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,8 +1406,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="GOST Common"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,6 +1442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1643,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1423,6 +1814,136 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,6 +1970,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="98">
@@ -1829,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1856,36 +2380,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="60" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="64" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="59" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="103" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -1893,19 +2417,19 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="59"/>
+      <c r="A2" s="103"/>
       <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="103"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +2448,7 @@
       <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="59"/>
+      <c r="N2" s="103"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3900,36 +4424,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="60" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="64" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="59" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="103" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -3940,19 +4464,19 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="59"/>
+      <c r="A2" s="103"/>
       <c r="B2" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="103"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +4495,7 @@
       <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="59"/>
+      <c r="N2" s="103"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4648,6 +5172,3139 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCC3F6F-7877-4668-8FE1-223506AF02E7}">
+  <dimension ref="A1:Q40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="32"/>
+    <col min="17" max="17" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="102"/>
+      <c r="F1" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="109"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="103"/>
+      <c r="B2" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="105"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="103"/>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="71" customFormat="1" ht="48">
+      <c r="A3" s="58">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59" t="str">
+        <f>CONCATENATE(B$2,"-",A3)</f>
+        <v>06/25Г-1</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63">
+        <v>648.59</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" s="65"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="61">
+        <v>45498</v>
+      </c>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
+    </row>
+    <row r="4" spans="1:17" ht="45">
+      <c r="A4" s="6">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <f t="shared" ref="B4" si="0">CONCATENATE(B$2,"-",A4)</f>
+        <v>06/25Г-2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="8">
+        <f>D3+1</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>E3+1</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22">
+        <v>70</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="Q4" s="54"/>
+    </row>
+    <row r="5" spans="1:17" s="95" customFormat="1" ht="48">
+      <c r="A5" s="82">
+        <f t="shared" ref="A5:A7" si="1">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="83" t="str">
+        <f t="shared" ref="B5:B7" si="2">CONCATENATE(B$2,"-",A5)</f>
+        <v>06/25Г-3</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="85">
+        <v>45823</v>
+      </c>
+      <c r="E5" s="85">
+        <v>45825</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="87">
+        <v>398.75</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P5" s="94"/>
+    </row>
+    <row r="6" spans="1:17" s="95" customFormat="1" ht="45">
+      <c r="A6" s="82">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>06/25Г-4</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="85">
+        <f>D5+1</f>
+        <v>45824</v>
+      </c>
+      <c r="E6" s="85">
+        <f>E5+1</f>
+        <v>45826</v>
+      </c>
+      <c r="F6" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="87">
+        <v>398.75</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P6" s="94"/>
+    </row>
+    <row r="7" spans="1:17" s="95" customFormat="1" ht="45">
+      <c r="A7" s="82">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>06/25Г-5</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="85">
+        <f>D6+1</f>
+        <v>45825</v>
+      </c>
+      <c r="E7" s="85">
+        <f>E6+1</f>
+        <v>45827</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="87">
+        <v>398.75</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P7" s="94"/>
+    </row>
+    <row r="8" spans="1:17" s="95" customFormat="1" ht="48">
+      <c r="A8" s="82">
+        <f t="shared" ref="A8:A10" si="3">A7+1</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="83" t="str">
+        <f t="shared" ref="B8:B10" si="4">CONCATENATE(B$2,"-",A8)</f>
+        <v>06/25Г-6</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="85">
+        <v>45817</v>
+      </c>
+      <c r="E8" s="85">
+        <v>45818</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="87">
+        <v>114.95</v>
+      </c>
+      <c r="H8" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" s="89"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P8" s="94"/>
+    </row>
+    <row r="9" spans="1:17" s="95" customFormat="1" ht="45">
+      <c r="A9" s="82">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>06/25Г-7</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="85">
+        <f>D8+1</f>
+        <v>45818</v>
+      </c>
+      <c r="E9" s="85">
+        <f>E8+1</f>
+        <v>45819</v>
+      </c>
+      <c r="F9" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="87">
+        <v>114.95</v>
+      </c>
+      <c r="H9" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I9" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P9" s="94"/>
+    </row>
+    <row r="10" spans="1:17" s="95" customFormat="1" ht="45">
+      <c r="A10" s="82">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>06/25Г-8</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="85">
+        <f>D9+1</f>
+        <v>45819</v>
+      </c>
+      <c r="E10" s="85">
+        <f>E9+1</f>
+        <v>45820</v>
+      </c>
+      <c r="F10" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="87">
+        <v>114.95</v>
+      </c>
+      <c r="H10" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I10" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J10" s="89"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P10" s="94"/>
+    </row>
+    <row r="11" spans="1:17" s="95" customFormat="1" ht="48">
+      <c r="A11" s="82">
+        <f t="shared" ref="A11:A15" si="5">A10+1</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="83" t="str">
+        <f t="shared" ref="B11:B15" si="6">CONCATENATE(B$2,"-",A11)</f>
+        <v>06/25Г-9</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="85">
+        <v>45814</v>
+      </c>
+      <c r="E11" s="85">
+        <v>45817</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87">
+        <v>1154.4100000000001</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="M11" s="92"/>
+      <c r="N11" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P11" s="94"/>
+    </row>
+    <row r="12" spans="1:17" ht="45">
+      <c r="A12" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>06/25Г-10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="8">
+        <f>D11+1</f>
+        <v>45815</v>
+      </c>
+      <c r="E12" s="8">
+        <f>E11+1</f>
+        <v>45818</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22">
+        <v>121.7</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" s="95" customFormat="1" ht="48">
+      <c r="A13" s="82">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>06/25Г-11</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="85">
+        <v>45812</v>
+      </c>
+      <c r="E13" s="85">
+        <v>45814</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="87">
+        <v>349.81</v>
+      </c>
+      <c r="H13" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I13" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P13" s="94"/>
+    </row>
+    <row r="14" spans="1:17" s="95" customFormat="1" ht="45">
+      <c r="A14" s="82">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>06/25Г-12</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="85">
+        <f>D13+1</f>
+        <v>45813</v>
+      </c>
+      <c r="E14" s="85">
+        <f>E13+1</f>
+        <v>45815</v>
+      </c>
+      <c r="F14" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="87">
+        <v>349.81</v>
+      </c>
+      <c r="H14" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J14" s="89"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P14" s="94"/>
+    </row>
+    <row r="15" spans="1:17" s="95" customFormat="1" ht="45">
+      <c r="A15" s="82">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>06/25Г-13</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="85">
+        <f>D14+1</f>
+        <v>45814</v>
+      </c>
+      <c r="E15" s="85">
+        <f>E14+1</f>
+        <v>45816</v>
+      </c>
+      <c r="F15" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="87">
+        <v>349.81</v>
+      </c>
+      <c r="H15" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I15" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P15" s="94"/>
+    </row>
+    <row r="16" spans="1:17" s="95" customFormat="1" ht="48">
+      <c r="A16" s="82">
+        <f t="shared" ref="A16:A25" si="7">A15+1</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="83" t="str">
+        <f t="shared" ref="B16:B25" si="8">CONCATENATE(B$2,"-",A16)</f>
+        <v>06/25Г-14</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="85">
+        <v>45807</v>
+      </c>
+      <c r="E16" s="85">
+        <v>45809</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="87">
+        <v>242.41</v>
+      </c>
+      <c r="H16" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P16" s="94"/>
+    </row>
+    <row r="17" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A17" s="82">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="83" t="str">
+        <f t="shared" si="8"/>
+        <v>06/25Г-15</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="85">
+        <f>D16+1</f>
+        <v>45808</v>
+      </c>
+      <c r="E17" s="85">
+        <f>E16+1</f>
+        <v>45810</v>
+      </c>
+      <c r="F17" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="87">
+        <v>242.41</v>
+      </c>
+      <c r="H17" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P17" s="94"/>
+    </row>
+    <row r="18" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A18" s="82">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="83" t="str">
+        <f t="shared" si="8"/>
+        <v>06/25Г-16</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="85">
+        <f>D17+1</f>
+        <v>45809</v>
+      </c>
+      <c r="E18" s="85">
+        <f>E17+1</f>
+        <v>45811</v>
+      </c>
+      <c r="F18" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="87">
+        <v>242.41</v>
+      </c>
+      <c r="H18" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I18" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P18" s="94"/>
+    </row>
+    <row r="19" spans="1:16" s="81" customFormat="1" ht="48">
+      <c r="A19" s="72">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="73" t="str">
+        <f t="shared" si="8"/>
+        <v>06/25Г-17</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" s="63">
+        <v>353.26</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="74">
+        <v>45498</v>
+      </c>
+      <c r="P19" s="80"/>
+    </row>
+    <row r="20" spans="1:16" ht="45">
+      <c r="A20" s="6">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>06/25Г-18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="8">
+        <f>D19+1</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <f>E19+1</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="99" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" s="22">
+        <v>353.26</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="8">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="45">
+      <c r="A21" s="6">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>06/25Г-19</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="8">
+        <f>D20+1</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="8">
+        <f>E20+1</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" s="22">
+        <v>353.26</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="8">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="95" customFormat="1" ht="48">
+      <c r="A22" s="82">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="83" t="str">
+        <f t="shared" si="8"/>
+        <v>06/25Г-20</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="85">
+        <v>45822</v>
+      </c>
+      <c r="E22" s="85">
+        <v>45823</v>
+      </c>
+      <c r="F22" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" s="87">
+        <v>42.31</v>
+      </c>
+      <c r="H22" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I22" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J22" s="89"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="91" t="s">
+        <v>271</v>
+      </c>
+      <c r="M22" s="92"/>
+      <c r="N22" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P22" s="94"/>
+    </row>
+    <row r="23" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A23" s="82">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="83" t="str">
+        <f t="shared" si="8"/>
+        <v>06/25Г-21</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="85">
+        <f t="shared" ref="D23:E25" si="9">D22+1</f>
+        <v>45823</v>
+      </c>
+      <c r="E23" s="85">
+        <f t="shared" si="9"/>
+        <v>45824</v>
+      </c>
+      <c r="F23" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="87">
+        <v>42.31</v>
+      </c>
+      <c r="H23" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I23" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P23" s="94"/>
+    </row>
+    <row r="24" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A24" s="82">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="83" t="str">
+        <f t="shared" si="8"/>
+        <v>06/25Г-22</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="85">
+        <f t="shared" si="9"/>
+        <v>45824</v>
+      </c>
+      <c r="E24" s="85">
+        <f t="shared" si="9"/>
+        <v>45825</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="87">
+        <v>42.31</v>
+      </c>
+      <c r="H24" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I24" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J24" s="89"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P24" s="94"/>
+    </row>
+    <row r="25" spans="1:16" s="95" customFormat="1" ht="60">
+      <c r="A25" s="82">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="83" t="str">
+        <f t="shared" si="8"/>
+        <v>06/25Г-23</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="85">
+        <f t="shared" si="9"/>
+        <v>45825</v>
+      </c>
+      <c r="E25" s="85">
+        <f t="shared" si="9"/>
+        <v>45826</v>
+      </c>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87">
+        <v>2.12</v>
+      </c>
+      <c r="H25" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="I25" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="J25" s="89"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="85"/>
+      <c r="P25" s="94"/>
+    </row>
+    <row r="26" spans="1:16" s="95" customFormat="1" ht="48">
+      <c r="A26" s="82">
+        <f t="shared" ref="A26:A40" si="10">A25+1</f>
+        <v>24</v>
+      </c>
+      <c r="B26" s="83" t="str">
+        <f t="shared" ref="B26:B40" si="11">CONCATENATE(B$2,"-",A26)</f>
+        <v>06/25Г-24</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="85">
+        <v>45824</v>
+      </c>
+      <c r="E26" s="85">
+        <v>45825</v>
+      </c>
+      <c r="F26" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" s="87">
+        <v>46.17</v>
+      </c>
+      <c r="H26" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I26" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J26" s="89"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="M26" s="92"/>
+      <c r="N26" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P26" s="94"/>
+    </row>
+    <row r="27" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A27" s="82">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-25</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="85">
+        <f t="shared" ref="D27:E29" si="12">D26+1</f>
+        <v>45825</v>
+      </c>
+      <c r="E27" s="85">
+        <f t="shared" si="12"/>
+        <v>45826</v>
+      </c>
+      <c r="F27" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" s="87">
+        <v>46.17</v>
+      </c>
+      <c r="H27" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I27" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J27" s="89"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P27" s="94"/>
+    </row>
+    <row r="28" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A28" s="82">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-26</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="85">
+        <f t="shared" si="12"/>
+        <v>45826</v>
+      </c>
+      <c r="E28" s="85">
+        <f t="shared" si="12"/>
+        <v>45827</v>
+      </c>
+      <c r="F28" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28" s="87">
+        <v>46.17</v>
+      </c>
+      <c r="H28" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I28" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J28" s="89"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="O28" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P28" s="94"/>
+    </row>
+    <row r="29" spans="1:16" s="95" customFormat="1" ht="60">
+      <c r="A29" s="82">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-27</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="85">
+        <f t="shared" si="12"/>
+        <v>45827</v>
+      </c>
+      <c r="E29" s="85">
+        <f t="shared" si="12"/>
+        <v>45828</v>
+      </c>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87">
+        <v>2.31</v>
+      </c>
+      <c r="H29" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="I29" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="J29" s="89"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="O29" s="85"/>
+      <c r="P29" s="94"/>
+    </row>
+    <row r="30" spans="1:16" s="95" customFormat="1" ht="48">
+      <c r="A30" s="82">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-28</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="85">
+        <v>45830</v>
+      </c>
+      <c r="E30" s="85">
+        <v>45831</v>
+      </c>
+      <c r="F30" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" s="87">
+        <v>126.18</v>
+      </c>
+      <c r="H30" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I30" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30" s="89"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="M30" s="92"/>
+      <c r="N30" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="O30" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P30" s="94"/>
+    </row>
+    <row r="31" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A31" s="82">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-29</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="85">
+        <f t="shared" ref="D31:E33" si="13">D30+1</f>
+        <v>45831</v>
+      </c>
+      <c r="E31" s="85">
+        <f t="shared" si="13"/>
+        <v>45832</v>
+      </c>
+      <c r="F31" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="87">
+        <v>126.18</v>
+      </c>
+      <c r="H31" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I31" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" s="89"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="O31" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P31" s="94"/>
+    </row>
+    <row r="32" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A32" s="82">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-30</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="85">
+        <f t="shared" si="13"/>
+        <v>45832</v>
+      </c>
+      <c r="E32" s="85">
+        <f t="shared" si="13"/>
+        <v>45833</v>
+      </c>
+      <c r="F32" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" s="87">
+        <v>126.18</v>
+      </c>
+      <c r="H32" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I32" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" s="89"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P32" s="94"/>
+    </row>
+    <row r="33" spans="1:16" s="95" customFormat="1" ht="60">
+      <c r="A33" s="82">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-31</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="85">
+        <f t="shared" si="13"/>
+        <v>45833</v>
+      </c>
+      <c r="E33" s="85">
+        <f t="shared" si="13"/>
+        <v>45834</v>
+      </c>
+      <c r="F33" s="86"/>
+      <c r="G33" s="87">
+        <v>6.31</v>
+      </c>
+      <c r="H33" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="I33" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" s="89"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="O33" s="85"/>
+      <c r="P33" s="94"/>
+    </row>
+    <row r="34" spans="1:16" s="95" customFormat="1" ht="48">
+      <c r="A34" s="82">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-32</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="85">
+        <v>45822</v>
+      </c>
+      <c r="E34" s="85">
+        <v>45823</v>
+      </c>
+      <c r="F34" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="87">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="H34" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I34" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" s="89"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" s="92"/>
+      <c r="N34" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P34" s="94"/>
+    </row>
+    <row r="35" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A35" s="82">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-33</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="85">
+        <f t="shared" ref="D35:E37" si="14">D34+1</f>
+        <v>45823</v>
+      </c>
+      <c r="E35" s="85">
+        <f t="shared" si="14"/>
+        <v>45824</v>
+      </c>
+      <c r="F35" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" s="87">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="H35" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I35" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" s="89"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P35" s="94"/>
+    </row>
+    <row r="36" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A36" s="82">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-34</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="85">
+        <f t="shared" si="14"/>
+        <v>45824</v>
+      </c>
+      <c r="E36" s="85">
+        <f t="shared" si="14"/>
+        <v>45825</v>
+      </c>
+      <c r="F36" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="87">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="H36" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I36" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" s="89"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P36" s="94"/>
+    </row>
+    <row r="37" spans="1:16" s="95" customFormat="1" ht="60">
+      <c r="A37" s="82">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-35</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="85">
+        <f t="shared" si="14"/>
+        <v>45825</v>
+      </c>
+      <c r="E37" s="85">
+        <f t="shared" si="14"/>
+        <v>45826</v>
+      </c>
+      <c r="F37" s="86"/>
+      <c r="G37" s="87">
+        <v>3.61</v>
+      </c>
+      <c r="H37" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="I37" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" s="89"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="85"/>
+      <c r="P37" s="94"/>
+    </row>
+    <row r="38" spans="1:16" s="95" customFormat="1" ht="48">
+      <c r="A38" s="82">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-36</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="85">
+        <v>45812</v>
+      </c>
+      <c r="E38" s="85">
+        <v>45814</v>
+      </c>
+      <c r="F38" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" s="87">
+        <v>27.3</v>
+      </c>
+      <c r="H38" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I38" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" s="89"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="M38" s="92"/>
+      <c r="N38" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P38" s="94"/>
+    </row>
+    <row r="39" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A39" s="82">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-37</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="85">
+        <f>D38+1</f>
+        <v>45813</v>
+      </c>
+      <c r="E39" s="85">
+        <f>E38+1</f>
+        <v>45815</v>
+      </c>
+      <c r="F39" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" s="87">
+        <v>27.3</v>
+      </c>
+      <c r="H39" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I39" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" s="89"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P39" s="94"/>
+    </row>
+    <row r="40" spans="1:16" s="95" customFormat="1" ht="45">
+      <c r="A40" s="82">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="83" t="str">
+        <f t="shared" si="11"/>
+        <v>06/25Г-38</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="85">
+        <f>D39+1</f>
+        <v>45814</v>
+      </c>
+      <c r="E40" s="85">
+        <f>E39+1</f>
+        <v>45816</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" s="87">
+        <v>27.3</v>
+      </c>
+      <c r="H40" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="I40" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" s="89"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="85">
+        <v>45498</v>
+      </c>
+      <c r="P40" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6C8DC-7329-4A46-90B8-B5E0C7093C81}">
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="101" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="102"/>
+      <c r="F1" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="109"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="103"/>
+      <c r="B2" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="105"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="103"/>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3">
+        <v>648.59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="101">
+        <v>1</v>
+      </c>
+      <c r="E4" s="101">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="101">
+        <v>45823</v>
+      </c>
+      <c r="E5" s="101">
+        <v>45825</v>
+      </c>
+      <c r="F5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5">
+        <v>398.75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" t="s">
+        <v>272</v>
+      </c>
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="101">
+        <v>45824</v>
+      </c>
+      <c r="E6" s="101">
+        <v>45826</v>
+      </c>
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6">
+        <v>398.75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" t="s">
+        <v>286</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="101">
+        <v>45825</v>
+      </c>
+      <c r="E7" s="101">
+        <v>45827</v>
+      </c>
+      <c r="F7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7">
+        <v>398.75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" t="s">
+        <v>286</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="101">
+        <v>45817</v>
+      </c>
+      <c r="E8" s="101">
+        <v>45818</v>
+      </c>
+      <c r="F8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8">
+        <v>114.95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L8" t="s">
+        <v>267</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="101">
+        <v>45818</v>
+      </c>
+      <c r="E9" s="101">
+        <v>45819</v>
+      </c>
+      <c r="F9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9">
+        <v>114.95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" t="s">
+        <v>286</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="101">
+        <v>45819</v>
+      </c>
+      <c r="E10" s="101">
+        <v>45820</v>
+      </c>
+      <c r="F10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10">
+        <v>114.95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I10" t="s">
+        <v>286</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="101">
+        <v>45814</v>
+      </c>
+      <c r="E11" s="101">
+        <v>45817</v>
+      </c>
+      <c r="G11">
+        <v>1154.4100000000001</v>
+      </c>
+      <c r="L11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="101">
+        <v>45815</v>
+      </c>
+      <c r="E12" s="101">
+        <v>45818</v>
+      </c>
+      <c r="G12">
+        <v>121.7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="101">
+        <v>45812</v>
+      </c>
+      <c r="E13" s="101">
+        <v>45814</v>
+      </c>
+      <c r="F13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13">
+        <v>349.81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13" t="s">
+        <v>285</v>
+      </c>
+      <c r="L13" t="s">
+        <v>266</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="101">
+        <v>45813</v>
+      </c>
+      <c r="E14" s="101">
+        <v>45815</v>
+      </c>
+      <c r="F14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14">
+        <v>349.81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" t="s">
+        <v>286</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="101">
+        <v>45814</v>
+      </c>
+      <c r="E15" s="101">
+        <v>45816</v>
+      </c>
+      <c r="F15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15">
+        <v>349.81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>281</v>
+      </c>
+      <c r="I15" t="s">
+        <v>286</v>
+      </c>
+      <c r="N15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="101">
+        <v>45807</v>
+      </c>
+      <c r="E16" s="101">
+        <v>45809</v>
+      </c>
+      <c r="F16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16">
+        <v>242.41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>280</v>
+      </c>
+      <c r="I16" t="s">
+        <v>285</v>
+      </c>
+      <c r="L16" t="s">
+        <v>264</v>
+      </c>
+      <c r="N16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="101">
+        <v>45808</v>
+      </c>
+      <c r="E17" s="101">
+        <v>45810</v>
+      </c>
+      <c r="F17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17">
+        <v>242.41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>281</v>
+      </c>
+      <c r="I17" t="s">
+        <v>286</v>
+      </c>
+      <c r="N17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="101">
+        <v>45809</v>
+      </c>
+      <c r="E18" s="101">
+        <v>45811</v>
+      </c>
+      <c r="F18" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18">
+        <v>242.41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" t="s">
+        <v>286</v>
+      </c>
+      <c r="N18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19">
+        <v>353.26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>280</v>
+      </c>
+      <c r="I19" t="s">
+        <v>285</v>
+      </c>
+      <c r="N19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="101">
+        <v>1</v>
+      </c>
+      <c r="E20" s="101">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20">
+        <v>353.26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>281</v>
+      </c>
+      <c r="I20" t="s">
+        <v>286</v>
+      </c>
+      <c r="N20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="101">
+        <v>2</v>
+      </c>
+      <c r="E21" s="101">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21">
+        <v>353.26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>281</v>
+      </c>
+      <c r="I21" t="s">
+        <v>286</v>
+      </c>
+      <c r="N21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="101">
+        <v>45822</v>
+      </c>
+      <c r="E22" s="101">
+        <v>45823</v>
+      </c>
+      <c r="F22" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22">
+        <v>42.31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" t="s">
+        <v>285</v>
+      </c>
+      <c r="L22" t="s">
+        <v>271</v>
+      </c>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="101">
+        <v>45823</v>
+      </c>
+      <c r="E23" s="101">
+        <v>45824</v>
+      </c>
+      <c r="F23" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23">
+        <v>42.31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>281</v>
+      </c>
+      <c r="I23" t="s">
+        <v>286</v>
+      </c>
+      <c r="N23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="101">
+        <v>45824</v>
+      </c>
+      <c r="E24" s="101">
+        <v>45825</v>
+      </c>
+      <c r="F24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24">
+        <v>42.31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>281</v>
+      </c>
+      <c r="I24" t="s">
+        <v>286</v>
+      </c>
+      <c r="N24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="101">
+        <v>45825</v>
+      </c>
+      <c r="E25" s="101">
+        <v>45826</v>
+      </c>
+      <c r="G25">
+        <v>2.12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>287</v>
+      </c>
+      <c r="I25" t="s">
+        <v>288</v>
+      </c>
+      <c r="N25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="101">
+        <v>45824</v>
+      </c>
+      <c r="E26" s="101">
+        <v>45825</v>
+      </c>
+      <c r="F26" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26">
+        <v>46.17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>280</v>
+      </c>
+      <c r="I26" t="s">
+        <v>285</v>
+      </c>
+      <c r="L26" t="s">
+        <v>273</v>
+      </c>
+      <c r="N26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="101">
+        <v>45825</v>
+      </c>
+      <c r="E27" s="101">
+        <v>45826</v>
+      </c>
+      <c r="F27" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27">
+        <v>46.17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>281</v>
+      </c>
+      <c r="I27" t="s">
+        <v>286</v>
+      </c>
+      <c r="N27" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="101">
+        <v>45826</v>
+      </c>
+      <c r="E28" s="101">
+        <v>45827</v>
+      </c>
+      <c r="F28" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28">
+        <v>46.17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>281</v>
+      </c>
+      <c r="I28" t="s">
+        <v>286</v>
+      </c>
+      <c r="N28" t="s">
+        <v>97</v>
+      </c>
+      <c r="O28" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="101">
+        <v>45827</v>
+      </c>
+      <c r="E29" s="101">
+        <v>45828</v>
+      </c>
+      <c r="G29">
+        <v>2.31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I29" t="s">
+        <v>288</v>
+      </c>
+      <c r="N29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="101">
+        <v>45830</v>
+      </c>
+      <c r="E30" s="101">
+        <v>45831</v>
+      </c>
+      <c r="F30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30">
+        <v>126.18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="I30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>274</v>
+      </c>
+      <c r="N30" t="s">
+        <v>97</v>
+      </c>
+      <c r="O30" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="101">
+        <v>45831</v>
+      </c>
+      <c r="E31" s="101">
+        <v>45832</v>
+      </c>
+      <c r="F31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31">
+        <v>126.18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>281</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="N31" t="s">
+        <v>97</v>
+      </c>
+      <c r="O31" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="101">
+        <v>45832</v>
+      </c>
+      <c r="E32" s="101">
+        <v>45833</v>
+      </c>
+      <c r="F32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32">
+        <v>126.18</v>
+      </c>
+      <c r="H32" t="s">
+        <v>281</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="N32" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="101">
+        <v>45833</v>
+      </c>
+      <c r="E33" s="101">
+        <v>45834</v>
+      </c>
+      <c r="G33">
+        <v>6.31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>287</v>
+      </c>
+      <c r="I33" t="s">
+        <v>288</v>
+      </c>
+      <c r="N33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="101">
+        <v>45822</v>
+      </c>
+      <c r="E34" s="101">
+        <v>45823</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="H34" t="s">
+        <v>280</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="N34" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="101">
+        <v>45823</v>
+      </c>
+      <c r="E35" s="101">
+        <v>45824</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="H35" t="s">
+        <v>281</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+      <c r="N35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="101">
+        <v>45824</v>
+      </c>
+      <c r="E36" s="101">
+        <v>45825</v>
+      </c>
+      <c r="F36" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="H36" t="s">
+        <v>281</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="N36" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="101">
+        <v>45825</v>
+      </c>
+      <c r="E37" s="101">
+        <v>45826</v>
+      </c>
+      <c r="G37">
+        <v>3.61</v>
+      </c>
+      <c r="H37" t="s">
+        <v>287</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="N37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="101">
+        <v>45812</v>
+      </c>
+      <c r="E38" s="101">
+        <v>45814</v>
+      </c>
+      <c r="F38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38">
+        <v>27.3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>280</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="L38" t="s">
+        <v>265</v>
+      </c>
+      <c r="N38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="101">
+        <v>45813</v>
+      </c>
+      <c r="E39" s="101">
+        <v>45815</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39">
+        <v>27.3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>281</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+      <c r="N39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="101">
+        <v>45814</v>
+      </c>
+      <c r="E40" s="101">
+        <v>45816</v>
+      </c>
+      <c r="F40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40">
+        <v>27.3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>281</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="N40" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="101">
+        <v>45498</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7578CEC-7EAB-4A13-B001-D49F0091844C}">
   <dimension ref="A1:O43"/>
   <sheetViews>
@@ -4675,36 +8332,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="60" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="64" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="59" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="103" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -4712,19 +8369,19 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="59"/>
+      <c r="A2" s="103"/>
       <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="103"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
@@ -4743,7 +8400,7 @@
       <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="59"/>
+      <c r="N2" s="103"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
@@ -6501,7 +10158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B3AB2A-40C6-4638-9D97-DC900C5CB663}">
   <dimension ref="A1:P22"/>
   <sheetViews>
@@ -6529,36 +10186,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="60" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="64" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="59" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="103" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -6569,19 +10226,19 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="59"/>
+      <c r="A2" s="103"/>
       <c r="B2" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="103"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
@@ -6600,7 +10257,7 @@
       <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="59"/>
+      <c r="N2" s="103"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>

--- a/я. Бетон (Июнь).xlsx
+++ b/я. Бетон (Июнь).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\AOCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saratov\Desktop\Рудаков\my\ТМГ\Июнь\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D65686B-96EF-494A-84D3-BACF47E97F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F81FCF7-0369-4D3C-872F-0E347E93BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Бетон" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="331">
   <si>
     <t>№</t>
   </si>
@@ -1092,11 +1092,6 @@
     <t>87</t>
   </si>
   <si>
-    <t>Устройство 1-го слоя гидроизоляции покрытия
-в осях: 31(+2.700) -34/1(-0.015) /А - Н
-с ПК98+64.151 по ПК98+82.991 на отм. 136.960 до 137.180</t>
-  </si>
-  <si>
     <t>Устройство 2-го слоя гидроизоляции стен
 в осях: 33(+0.740) - 34/1(-0.015) / Н(+0.030) - Н(+3.250)
 с ПК98+64.151 по ПК98+68.951 на отм. 125.294 до 130.309</t>
@@ -1117,13 +1112,6 @@
 с ПК99+13.706 по ПК99+44.391 на отм. 137.049 до 137.878</t>
   </si>
   <si>
-    <t>Праймер битумный
-Гидроизоляция рулонная битмуно-полимерная</t>
-  </si>
-  <si>
-    <t>Гидроизоляция рулонная битмуно-полимерная</t>
-  </si>
-  <si>
     <t>Устройство 2-го слоя гидроизоляции</t>
   </si>
   <si>
@@ -1267,6 +1255,23 @@
   </si>
   <si>
     <t>Гидроизоляция рулонная битумно-полимерная</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Устройство 1-го слоя гидроизоляции покрытия
+в осях: 31(+2.700) -34/1(-0.015) /А - Н
+с ПК98+64.151 по ПК98+82.991 на отм. 136.980 до 137.184</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Утеплитель</t>
+  </si>
+  <si>
+    <t>паспорт №007 от 03.02.2025</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1648,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1814,47 +1819,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1928,22 +1897,55 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1970,9 +1972,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="98">
@@ -2353,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2380,36 +2379,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="108" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="103" t="s">
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="102" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -2417,19 +2416,19 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="103"/>
+      <c r="A2" s="102"/>
       <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="107"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2447,7 @@
       <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="103"/>
+      <c r="N2" s="102"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4424,36 +4423,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="108" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="103" t="s">
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="102" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -4464,19 +4463,19 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="103"/>
+      <c r="A2" s="102"/>
       <c r="B2" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="107"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
@@ -4495,7 +4494,7 @@
       <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="103"/>
+      <c r="N2" s="102"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5175,8 +5174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCC3F6F-7877-4668-8FE1-223506AF02E7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5202,36 +5201,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="108" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="103" t="s">
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="102" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -5239,19 +5238,19 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="103"/>
+      <c r="A2" s="102"/>
       <c r="B2" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="107"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
@@ -5270,1631 +5269,1655 @@
       <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="103"/>
+      <c r="N2" s="102"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="71" customFormat="1" ht="48">
-      <c r="A3" s="58">
+    <row r="3" spans="1:17" s="98" customFormat="1" ht="48">
+      <c r="A3" s="88">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="89" t="str">
         <f>CONCATENATE(B$2,"-",A3)</f>
         <v>06/25Г-1</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63">
+      <c r="D3" s="91">
+        <v>45815</v>
+      </c>
+      <c r="E3" s="91">
+        <v>45819</v>
+      </c>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75">
         <v>648.59</v>
       </c>
-      <c r="H3" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68" t="s">
+      <c r="H3" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="93"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="94" t="s">
+        <v>326</v>
+      </c>
+      <c r="M3" s="95"/>
+      <c r="N3" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="91">
         <v>45498</v>
       </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70"/>
-    </row>
-    <row r="4" spans="1:17" ht="45">
-      <c r="A4" s="6">
+      <c r="P3" s="96"/>
+      <c r="Q3" s="97"/>
+    </row>
+    <row r="4" spans="1:17" s="69" customFormat="1" ht="45">
+      <c r="A4" s="60">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="61" t="str">
         <f t="shared" ref="B4" si="0">CONCATENATE(B$2,"-",A4)</f>
         <v>06/25Г-2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="62">
         <f>D3+1</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
+        <v>45816</v>
+      </c>
+      <c r="E4" s="62">
         <f>E3+1</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22">
+        <v>45820</v>
+      </c>
+      <c r="F4" s="99"/>
+      <c r="G4" s="58">
         <v>70</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="39" t="s">
+      <c r="H4" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="Q4" s="54"/>
-    </row>
-    <row r="5" spans="1:17" s="95" customFormat="1" ht="48">
-      <c r="A5" s="82">
+      <c r="O4" s="62"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="100"/>
+    </row>
+    <row r="5" spans="1:17" s="83" customFormat="1" ht="48">
+      <c r="A5" s="70">
         <f t="shared" ref="A5:A7" si="1">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="83" t="str">
+      <c r="B5" s="71" t="str">
         <f t="shared" ref="B5:B7" si="2">CONCATENATE(B$2,"-",A5)</f>
         <v>06/25Г-3</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="73">
         <v>45823</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="73">
         <v>45825</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="75">
+        <v>398.75</v>
+      </c>
+      <c r="H5" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="87">
-        <v>398.75</v>
-      </c>
-      <c r="H5" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I5" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="93" t="s">
+      <c r="M5" s="80"/>
+      <c r="N5" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="85">
+      <c r="O5" s="73">
         <v>45498</v>
       </c>
-      <c r="P5" s="94"/>
-    </row>
-    <row r="6" spans="1:17" s="95" customFormat="1" ht="45">
-      <c r="A6" s="82">
+      <c r="P5" s="82"/>
+    </row>
+    <row r="6" spans="1:17" s="83" customFormat="1" ht="45">
+      <c r="A6" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="83" t="str">
+      <c r="B6" s="71" t="str">
         <f t="shared" si="2"/>
         <v>06/25Г-4</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="73">
         <f>D5+1</f>
         <v>45824</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="73">
         <f>E5+1</f>
         <v>45826</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="75">
+        <v>398.75</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G6" s="87">
-        <v>398.75</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I6" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93" t="s">
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="85">
+      <c r="O6" s="73">
         <v>45498</v>
       </c>
-      <c r="P6" s="94"/>
-    </row>
-    <row r="7" spans="1:17" s="95" customFormat="1" ht="45">
-      <c r="A7" s="82">
+      <c r="P6" s="82"/>
+    </row>
+    <row r="7" spans="1:17" s="83" customFormat="1" ht="45">
+      <c r="A7" s="70">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="71" t="str">
         <f t="shared" si="2"/>
         <v>06/25Г-5</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="73">
         <f>D6+1</f>
         <v>45825</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="73">
         <f>E6+1</f>
         <v>45827</v>
       </c>
-      <c r="F7" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="87">
+      <c r="F7" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="75">
         <v>398.75</v>
       </c>
-      <c r="H7" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I7" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93" t="s">
+      <c r="H7" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O7" s="73">
         <v>45498</v>
       </c>
-      <c r="P7" s="94"/>
-    </row>
-    <row r="8" spans="1:17" s="95" customFormat="1" ht="48">
-      <c r="A8" s="82">
+      <c r="P7" s="82"/>
+    </row>
+    <row r="8" spans="1:17" s="83" customFormat="1" ht="48">
+      <c r="A8" s="70">
         <f t="shared" ref="A8:A10" si="3">A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="83" t="str">
+      <c r="B8" s="71" t="str">
         <f t="shared" ref="B8:B10" si="4">CONCATENATE(B$2,"-",A8)</f>
         <v>06/25Г-6</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="73">
         <v>45817</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="73">
         <v>45818</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="75">
+        <v>114.95</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="G8" s="87">
-        <v>114.95</v>
-      </c>
-      <c r="H8" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91" t="s">
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="M8" s="92"/>
-      <c r="N8" s="93" t="s">
+      <c r="M8" s="80"/>
+      <c r="N8" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O8" s="73">
         <v>45498</v>
       </c>
-      <c r="P8" s="94"/>
-    </row>
-    <row r="9" spans="1:17" s="95" customFormat="1" ht="45">
-      <c r="A9" s="82">
+      <c r="P8" s="82"/>
+    </row>
+    <row r="9" spans="1:17" s="83" customFormat="1" ht="45">
+      <c r="A9" s="70">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B9" s="83" t="str">
+      <c r="B9" s="71" t="str">
         <f t="shared" si="4"/>
         <v>06/25Г-7</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="73">
         <f>D8+1</f>
         <v>45818</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="73">
         <f>E8+1</f>
         <v>45819</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9" s="75">
+        <v>114.95</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I9" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="87">
-        <v>114.95</v>
-      </c>
-      <c r="H9" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93" t="s">
+      <c r="J9" s="77"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="85">
+      <c r="O9" s="73">
         <v>45498</v>
       </c>
-      <c r="P9" s="94"/>
-    </row>
-    <row r="10" spans="1:17" s="95" customFormat="1" ht="45">
-      <c r="A10" s="82">
+      <c r="P9" s="82"/>
+    </row>
+    <row r="10" spans="1:17" s="83" customFormat="1" ht="45">
+      <c r="A10" s="70">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B10" s="83" t="str">
+      <c r="B10" s="71" t="str">
         <f t="shared" si="4"/>
         <v>06/25Г-8</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="73">
         <f>D9+1</f>
         <v>45819</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="73">
         <f>E9+1</f>
         <v>45820</v>
       </c>
-      <c r="F10" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="G10" s="87">
+      <c r="F10" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="75">
         <v>114.95</v>
       </c>
-      <c r="H10" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I10" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="93" t="s">
+      <c r="H10" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O10" s="73">
         <v>45498</v>
       </c>
-      <c r="P10" s="94"/>
-    </row>
-    <row r="11" spans="1:17" s="95" customFormat="1" ht="48">
-      <c r="A11" s="82">
+      <c r="P10" s="82"/>
+    </row>
+    <row r="11" spans="1:17" s="83" customFormat="1" ht="48">
+      <c r="A11" s="70">
         <f t="shared" ref="A11:A15" si="5">A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="83" t="str">
+      <c r="B11" s="71" t="str">
         <f t="shared" ref="B11:B15" si="6">CONCATENATE(B$2,"-",A11)</f>
         <v>06/25Г-9</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="73">
         <v>45814</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="73">
         <v>45817</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87">
+      <c r="F11" s="74"/>
+      <c r="G11" s="75">
         <v>1154.4100000000001</v>
       </c>
-      <c r="H11" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I11" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91" t="s">
+      <c r="H11" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93" t="s">
+      <c r="M11" s="80"/>
+      <c r="N11" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="85">
+      <c r="O11" s="73">
         <v>45498</v>
       </c>
-      <c r="P11" s="94"/>
-    </row>
-    <row r="12" spans="1:17" ht="45">
-      <c r="A12" s="6">
+      <c r="P11" s="82"/>
+    </row>
+    <row r="12" spans="1:17" s="69" customFormat="1" ht="45">
+      <c r="A12" s="60">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="str">
+      <c r="B12" s="61" t="str">
         <f t="shared" si="6"/>
         <v>06/25Г-10</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="62">
         <f>D11+1</f>
         <v>45815</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="62">
         <f>E11+1</f>
         <v>45818</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22">
+      <c r="F12" s="99"/>
+      <c r="G12" s="58">
         <v>121.7</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="39" t="s">
+      <c r="H12" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" s="95" customFormat="1" ht="48">
-      <c r="A13" s="82">
+      <c r="O12" s="62"/>
+      <c r="P12" s="68"/>
+    </row>
+    <row r="13" spans="1:17" s="83" customFormat="1" ht="48">
+      <c r="A13" s="70">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="83" t="str">
+      <c r="B13" s="71" t="str">
         <f t="shared" si="6"/>
         <v>06/25Г-11</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="73">
         <v>45812</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="73">
         <v>45814</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="75">
+        <v>349.81</v>
+      </c>
+      <c r="H13" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I13" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="G13" s="87">
-        <v>349.81</v>
-      </c>
-      <c r="H13" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I13" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91" t="s">
+      <c r="J13" s="77"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79" t="s">
         <v>266</v>
       </c>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93" t="s">
+      <c r="M13" s="80"/>
+      <c r="N13" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="85">
+      <c r="O13" s="73">
         <v>45498</v>
       </c>
-      <c r="P13" s="94"/>
-    </row>
-    <row r="14" spans="1:17" s="95" customFormat="1" ht="45">
-      <c r="A14" s="82">
+      <c r="P13" s="82"/>
+    </row>
+    <row r="14" spans="1:17" s="83" customFormat="1" ht="45">
+      <c r="A14" s="70">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="83" t="str">
+      <c r="B14" s="71" t="str">
         <f t="shared" si="6"/>
         <v>06/25Г-12</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="73">
         <f>D13+1</f>
         <v>45813</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="73">
         <f>E13+1</f>
         <v>45815</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="75">
+        <v>349.81</v>
+      </c>
+      <c r="H14" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I14" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G14" s="87">
-        <v>349.81</v>
-      </c>
-      <c r="H14" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I14" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93" t="s">
+      <c r="J14" s="77"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O14" s="73">
         <v>45498</v>
       </c>
-      <c r="P14" s="94"/>
-    </row>
-    <row r="15" spans="1:17" s="95" customFormat="1" ht="45">
-      <c r="A15" s="82">
+      <c r="P14" s="82"/>
+    </row>
+    <row r="15" spans="1:17" s="83" customFormat="1" ht="45">
+      <c r="A15" s="70">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="83" t="str">
+      <c r="B15" s="71" t="str">
         <f t="shared" si="6"/>
         <v>06/25Г-13</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="73">
         <f>D14+1</f>
         <v>45814</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="73">
         <f>E14+1</f>
         <v>45816</v>
       </c>
-      <c r="F15" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="G15" s="87">
+      <c r="F15" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="75">
         <v>349.81</v>
       </c>
-      <c r="H15" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I15" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="93" t="s">
+      <c r="H15" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J15" s="77"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="85">
+      <c r="O15" s="73">
         <v>45498</v>
       </c>
-      <c r="P15" s="94"/>
-    </row>
-    <row r="16" spans="1:17" s="95" customFormat="1" ht="48">
-      <c r="A16" s="82">
+      <c r="P15" s="82"/>
+    </row>
+    <row r="16" spans="1:17" s="83" customFormat="1" ht="48">
+      <c r="A16" s="70">
         <f t="shared" ref="A16:A25" si="7">A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="83" t="str">
+      <c r="B16" s="71" t="str">
         <f t="shared" ref="B16:B25" si="8">CONCATENATE(B$2,"-",A16)</f>
         <v>06/25Г-14</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="73">
         <v>45807</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="73">
         <v>45809</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="75">
+        <v>242.41</v>
+      </c>
+      <c r="H16" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I16" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="G16" s="87">
-        <v>242.41</v>
-      </c>
-      <c r="H16" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I16" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91" t="s">
+      <c r="J16" s="77"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="M16" s="92"/>
-      <c r="N16" s="93" t="s">
+      <c r="M16" s="80"/>
+      <c r="N16" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="85">
+      <c r="O16" s="73">
         <v>45498</v>
       </c>
-      <c r="P16" s="94"/>
-    </row>
-    <row r="17" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A17" s="82">
+      <c r="P16" s="82"/>
+    </row>
+    <row r="17" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A17" s="70">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="B17" s="83" t="str">
+      <c r="B17" s="71" t="str">
         <f t="shared" si="8"/>
         <v>06/25Г-15</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="73">
         <f>D16+1</f>
         <v>45808</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="73">
         <f>E16+1</f>
         <v>45810</v>
       </c>
-      <c r="F17" s="98" t="s">
+      <c r="F17" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="75">
+        <v>242.41</v>
+      </c>
+      <c r="H17" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G17" s="87">
-        <v>242.41</v>
-      </c>
-      <c r="H17" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I17" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="93" t="s">
+      <c r="J17" s="77"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O17" s="85">
+      <c r="O17" s="73">
         <v>45498</v>
       </c>
-      <c r="P17" s="94"/>
-    </row>
-    <row r="18" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A18" s="82">
+      <c r="P17" s="82"/>
+    </row>
+    <row r="18" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A18" s="70">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="B18" s="83" t="str">
+      <c r="B18" s="71" t="str">
         <f t="shared" si="8"/>
         <v>06/25Г-16</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="73">
         <f>D17+1</f>
         <v>45809</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="73">
         <f>E17+1</f>
         <v>45811</v>
       </c>
-      <c r="F18" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="G18" s="87">
+      <c r="F18" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="75">
         <v>242.41</v>
       </c>
-      <c r="H18" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I18" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="93" t="s">
+      <c r="H18" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I18" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J18" s="77"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="85">
+      <c r="O18" s="73">
         <v>45498</v>
       </c>
-      <c r="P18" s="94"/>
-    </row>
-    <row r="19" spans="1:16" s="81" customFormat="1" ht="48">
-      <c r="A19" s="72">
+      <c r="P18" s="82"/>
+    </row>
+    <row r="19" spans="1:16" s="83" customFormat="1" ht="48">
+      <c r="A19" s="70">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="B19" s="73" t="str">
+      <c r="B19" s="71" t="str">
         <f t="shared" si="8"/>
         <v>06/25Г-17</v>
       </c>
-      <c r="C19" s="96" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="100" t="s">
+      <c r="C19" s="90" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="73">
+        <v>45818</v>
+      </c>
+      <c r="E19" s="73">
+        <v>45821</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G19" s="75">
+        <v>353.26</v>
+      </c>
+      <c r="H19" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I19" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="G19" s="63">
-        <v>353.26</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>327</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="68" t="s">
+      <c r="J19" s="77"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="M19" s="80"/>
+      <c r="N19" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O19" s="74">
+      <c r="O19" s="73">
         <v>45498</v>
       </c>
-      <c r="P19" s="80"/>
-    </row>
-    <row r="20" spans="1:16" ht="45">
-      <c r="A20" s="6">
+      <c r="P19" s="82"/>
+    </row>
+    <row r="20" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A20" s="70">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="str">
+      <c r="B20" s="71" t="str">
         <f t="shared" si="8"/>
         <v>06/25Г-18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="73">
         <f>D19+1</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
+        <v>45819</v>
+      </c>
+      <c r="E20" s="73">
         <f>E19+1</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="99" t="s">
+        <v>45822</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="75">
+        <v>353.26</v>
+      </c>
+      <c r="H20" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I20" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G20" s="22">
-        <v>353.26</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="39" t="s">
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="73">
         <v>45498</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="45">
-      <c r="A21" s="6">
+      <c r="P20" s="82"/>
+    </row>
+    <row r="21" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A21" s="70">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="str">
+      <c r="B21" s="71" t="str">
         <f t="shared" si="8"/>
         <v>06/25Г-19</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="73">
         <f>D20+1</f>
-        <v>2</v>
-      </c>
-      <c r="E21" s="8">
+        <v>45820</v>
+      </c>
+      <c r="E21" s="73">
         <f>E20+1</f>
-        <v>2</v>
-      </c>
-      <c r="F21" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="G21" s="22">
+        <v>45823</v>
+      </c>
+      <c r="F21" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" s="75">
         <v>353.26</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="39" t="s">
+      <c r="H21" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="73">
         <v>45498</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="95" customFormat="1" ht="48">
-      <c r="A22" s="82">
+      <c r="P21" s="82"/>
+    </row>
+    <row r="22" spans="1:16" s="83" customFormat="1" ht="48">
+      <c r="A22" s="70">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="B22" s="83" t="str">
+      <c r="B22" s="71" t="str">
         <f t="shared" si="8"/>
         <v>06/25Г-20</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="73">
         <v>45822</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="73">
         <v>45823</v>
       </c>
-      <c r="F22" s="98" t="s">
+      <c r="F22" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="75">
+        <v>42.31</v>
+      </c>
+      <c r="H22" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I22" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="G22" s="87">
-        <v>42.31</v>
-      </c>
-      <c r="H22" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I22" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="91" t="s">
+      <c r="J22" s="77"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="M22" s="92"/>
-      <c r="N22" s="93" t="s">
+      <c r="M22" s="80"/>
+      <c r="N22" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="85">
+      <c r="O22" s="73">
         <v>45498</v>
       </c>
-      <c r="P22" s="94"/>
-    </row>
-    <row r="23" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A23" s="82">
+      <c r="P22" s="82"/>
+    </row>
+    <row r="23" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A23" s="70">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="B23" s="83" t="str">
+      <c r="B23" s="71" t="str">
         <f t="shared" si="8"/>
         <v>06/25Г-21</v>
       </c>
-      <c r="C23" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="85">
+      <c r="C23" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="73">
         <f t="shared" ref="D23:E25" si="9">D22+1</f>
         <v>45823</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="73">
         <f t="shared" si="9"/>
         <v>45824</v>
       </c>
-      <c r="F23" s="98" t="s">
+      <c r="F23" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="75">
+        <v>42.31</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I23" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G23" s="87">
-        <v>42.31</v>
-      </c>
-      <c r="H23" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I23" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="93" t="s">
+      <c r="J23" s="77"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="85">
+      <c r="O23" s="73">
         <v>45498</v>
       </c>
-      <c r="P23" s="94"/>
-    </row>
-    <row r="24" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A24" s="82">
+      <c r="P23" s="82"/>
+    </row>
+    <row r="24" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A24" s="70">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="B24" s="83" t="str">
+      <c r="B24" s="71" t="str">
         <f t="shared" si="8"/>
         <v>06/25Г-22</v>
       </c>
-      <c r="C24" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="D24" s="85">
+      <c r="C24" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" s="73">
         <f t="shared" si="9"/>
         <v>45824</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="73">
         <f t="shared" si="9"/>
         <v>45825</v>
       </c>
-      <c r="F24" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="G24" s="87">
+      <c r="F24" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="75">
         <v>42.31</v>
       </c>
-      <c r="H24" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I24" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="93" t="s">
+      <c r="H24" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I24" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J24" s="77"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="85">
+      <c r="O24" s="73">
         <v>45498</v>
       </c>
-      <c r="P24" s="94"/>
-    </row>
-    <row r="25" spans="1:16" s="95" customFormat="1" ht="60">
-      <c r="A25" s="82">
+      <c r="P24" s="82"/>
+    </row>
+    <row r="25" spans="1:16" s="83" customFormat="1" ht="60">
+      <c r="A25" s="70">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="B25" s="83" t="str">
+      <c r="B25" s="71" t="str">
         <f t="shared" si="8"/>
         <v>06/25Г-23</v>
       </c>
-      <c r="C25" s="84" t="s">
-        <v>278</v>
-      </c>
-      <c r="D25" s="85">
+      <c r="C25" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="73">
         <f t="shared" si="9"/>
         <v>45825</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="73">
         <f t="shared" si="9"/>
         <v>45826</v>
       </c>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87">
+      <c r="F25" s="74"/>
+      <c r="G25" s="75">
         <v>2.12</v>
       </c>
-      <c r="H25" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="I25" s="111" t="s">
-        <v>288</v>
-      </c>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="93" t="s">
+      <c r="H25" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="I25" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="J25" s="77"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="85"/>
-      <c r="P25" s="94"/>
-    </row>
-    <row r="26" spans="1:16" s="95" customFormat="1" ht="48">
-      <c r="A26" s="82">
+      <c r="O25" s="73"/>
+      <c r="P25" s="82"/>
+    </row>
+    <row r="26" spans="1:16" s="83" customFormat="1" ht="48">
+      <c r="A26" s="70">
         <f t="shared" ref="A26:A40" si="10">A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="83" t="str">
+      <c r="B26" s="71" t="str">
         <f t="shared" ref="B26:B40" si="11">CONCATENATE(B$2,"-",A26)</f>
         <v>06/25Г-24</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="73">
         <v>45824</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="73">
         <v>45825</v>
       </c>
-      <c r="F26" s="98" t="s">
+      <c r="F26" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" s="75">
+        <v>46.17</v>
+      </c>
+      <c r="H26" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I26" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="G26" s="87">
-        <v>46.17</v>
-      </c>
-      <c r="H26" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I26" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91" t="s">
+      <c r="J26" s="77"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79" t="s">
         <v>273</v>
       </c>
-      <c r="M26" s="92"/>
-      <c r="N26" s="93" t="s">
+      <c r="M26" s="80"/>
+      <c r="N26" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O26" s="85">
+      <c r="O26" s="73">
         <v>45498</v>
       </c>
-      <c r="P26" s="94"/>
-    </row>
-    <row r="27" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A27" s="82">
+      <c r="P26" s="82"/>
+    </row>
+    <row r="27" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A27" s="70">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="B27" s="83" t="str">
+      <c r="B27" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-25</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="73">
         <f t="shared" ref="D27:E29" si="12">D26+1</f>
         <v>45825</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="73">
         <f t="shared" si="12"/>
         <v>45826</v>
       </c>
-      <c r="F27" s="98" t="s">
+      <c r="F27" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="75">
+        <v>46.17</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I27" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G27" s="87">
-        <v>46.17</v>
-      </c>
-      <c r="H27" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I27" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="93" t="s">
+      <c r="J27" s="77"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O27" s="85">
+      <c r="O27" s="73">
         <v>45498</v>
       </c>
-      <c r="P27" s="94"/>
-    </row>
-    <row r="28" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A28" s="82">
+      <c r="P27" s="82"/>
+    </row>
+    <row r="28" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A28" s="70">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="B28" s="83" t="str">
+      <c r="B28" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-26</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="73">
         <f t="shared" si="12"/>
         <v>45826</v>
       </c>
-      <c r="E28" s="85">
+      <c r="E28" s="73">
         <f t="shared" si="12"/>
         <v>45827</v>
       </c>
-      <c r="F28" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="G28" s="87">
+      <c r="F28" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" s="75">
         <v>46.17</v>
       </c>
-      <c r="H28" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I28" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="93" t="s">
+      <c r="H28" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I28" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J28" s="77"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O28" s="85">
+      <c r="O28" s="73">
         <v>45498</v>
       </c>
-      <c r="P28" s="94"/>
-    </row>
-    <row r="29" spans="1:16" s="95" customFormat="1" ht="60">
-      <c r="A29" s="82">
+      <c r="P28" s="82"/>
+    </row>
+    <row r="29" spans="1:16" s="83" customFormat="1" ht="60">
+      <c r="A29" s="70">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="B29" s="83" t="str">
+      <c r="B29" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-27</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="85">
+      <c r="D29" s="73">
         <f t="shared" si="12"/>
         <v>45827</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="73">
         <f t="shared" si="12"/>
         <v>45828</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="87">
+      <c r="F29" s="74"/>
+      <c r="G29" s="75">
         <v>2.31</v>
       </c>
-      <c r="H29" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="I29" s="111" t="s">
-        <v>288</v>
-      </c>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="93" t="s">
+      <c r="H29" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="I29" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="J29" s="77"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O29" s="85"/>
-      <c r="P29" s="94"/>
-    </row>
-    <row r="30" spans="1:16" s="95" customFormat="1" ht="48">
-      <c r="A30" s="82">
+      <c r="O29" s="73"/>
+      <c r="P29" s="82"/>
+    </row>
+    <row r="30" spans="1:16" s="83" customFormat="1" ht="48">
+      <c r="A30" s="70">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="B30" s="83" t="str">
+      <c r="B30" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-28</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="73">
         <v>45830</v>
       </c>
-      <c r="E30" s="85">
+      <c r="E30" s="73">
         <v>45831</v>
       </c>
-      <c r="F30" s="98" t="s">
+      <c r="F30" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="75">
+        <v>126.18</v>
+      </c>
+      <c r="H30" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I30" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="G30" s="87">
-        <v>126.18</v>
-      </c>
-      <c r="H30" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I30" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91" t="s">
+      <c r="J30" s="77"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="M30" s="92"/>
-      <c r="N30" s="93" t="s">
+      <c r="M30" s="80"/>
+      <c r="N30" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O30" s="85">
+      <c r="O30" s="73">
         <v>45498</v>
       </c>
-      <c r="P30" s="94"/>
-    </row>
-    <row r="31" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A31" s="82">
+      <c r="P30" s="82"/>
+    </row>
+    <row r="31" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A31" s="70">
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="B31" s="83" t="str">
+      <c r="B31" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-29</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="85">
+      <c r="D31" s="73">
         <f t="shared" ref="D31:E33" si="13">D30+1</f>
         <v>45831</v>
       </c>
-      <c r="E31" s="85">
+      <c r="E31" s="73">
         <f t="shared" si="13"/>
         <v>45832</v>
       </c>
-      <c r="F31" s="98" t="s">
+      <c r="F31" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="75">
+        <v>126.18</v>
+      </c>
+      <c r="H31" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I31" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G31" s="87">
-        <v>126.18</v>
-      </c>
-      <c r="H31" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I31" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="93" t="s">
+      <c r="J31" s="77"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O31" s="85">
+      <c r="O31" s="73">
         <v>45498</v>
       </c>
-      <c r="P31" s="94"/>
-    </row>
-    <row r="32" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A32" s="82">
+      <c r="P31" s="82"/>
+    </row>
+    <row r="32" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A32" s="70">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="B32" s="83" t="str">
+      <c r="B32" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-30</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="D32" s="85">
+      <c r="D32" s="73">
         <f t="shared" si="13"/>
         <v>45832</v>
       </c>
-      <c r="E32" s="85">
+      <c r="E32" s="73">
         <f t="shared" si="13"/>
         <v>45833</v>
       </c>
-      <c r="F32" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="G32" s="87">
+      <c r="F32" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" s="75">
         <v>126.18</v>
       </c>
-      <c r="H32" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I32" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J32" s="89"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="93" t="s">
+      <c r="H32" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I32" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O32" s="85">
+      <c r="O32" s="73">
         <v>45498</v>
       </c>
-      <c r="P32" s="94"/>
-    </row>
-    <row r="33" spans="1:16" s="95" customFormat="1" ht="60">
-      <c r="A33" s="82">
+      <c r="P32" s="82"/>
+    </row>
+    <row r="33" spans="1:16" s="83" customFormat="1" ht="60">
+      <c r="A33" s="70">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="B33" s="83" t="str">
+      <c r="B33" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-31</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="D33" s="85">
+      <c r="D33" s="73">
         <f t="shared" si="13"/>
         <v>45833</v>
       </c>
-      <c r="E33" s="85">
+      <c r="E33" s="73">
         <f t="shared" si="13"/>
         <v>45834</v>
       </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="87">
+      <c r="F33" s="74"/>
+      <c r="G33" s="75">
         <v>6.31</v>
       </c>
-      <c r="H33" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="I33" s="111" t="s">
-        <v>288</v>
-      </c>
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="93" t="s">
+      <c r="H33" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="I33" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O33" s="85"/>
-      <c r="P33" s="94"/>
-    </row>
-    <row r="34" spans="1:16" s="95" customFormat="1" ht="48">
-      <c r="A34" s="82">
+      <c r="O33" s="73"/>
+      <c r="P33" s="82"/>
+    </row>
+    <row r="34" spans="1:16" s="83" customFormat="1" ht="48">
+      <c r="A34" s="70">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="B34" s="83" t="str">
+      <c r="B34" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-32</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="85">
+      <c r="D34" s="73">
         <v>45822</v>
       </c>
-      <c r="E34" s="85">
+      <c r="E34" s="73">
         <v>45823</v>
       </c>
-      <c r="F34" s="98" t="s">
+      <c r="F34" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" s="75">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I34" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="G34" s="87">
-        <v>72.239999999999995</v>
-      </c>
-      <c r="H34" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I34" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J34" s="89"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="77"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="79" t="s">
         <v>269</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93" t="s">
+      <c r="M34" s="80"/>
+      <c r="N34" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="85">
+      <c r="O34" s="73">
         <v>45498</v>
       </c>
-      <c r="P34" s="94"/>
-    </row>
-    <row r="35" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A35" s="82">
+      <c r="P34" s="82"/>
+    </row>
+    <row r="35" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A35" s="70">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="B35" s="83" t="str">
+      <c r="B35" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-33</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="D35" s="85">
+      <c r="D35" s="73">
         <f t="shared" ref="D35:E37" si="14">D34+1</f>
         <v>45823</v>
       </c>
-      <c r="E35" s="85">
+      <c r="E35" s="73">
         <f t="shared" si="14"/>
         <v>45824</v>
       </c>
-      <c r="F35" s="98" t="s">
+      <c r="F35" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" s="75">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="H35" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I35" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G35" s="87">
-        <v>72.239999999999995</v>
-      </c>
-      <c r="H35" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I35" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="93" t="s">
+      <c r="J35" s="77"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="85">
+      <c r="O35" s="73">
         <v>45498</v>
       </c>
-      <c r="P35" s="94"/>
-    </row>
-    <row r="36" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A36" s="82">
+      <c r="P35" s="82"/>
+    </row>
+    <row r="36" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A36" s="70">
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="B36" s="83" t="str">
+      <c r="B36" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-34</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="D36" s="85">
+      <c r="D36" s="73">
         <f t="shared" si="14"/>
         <v>45824</v>
       </c>
-      <c r="E36" s="85">
+      <c r="E36" s="73">
         <f t="shared" si="14"/>
         <v>45825</v>
       </c>
-      <c r="F36" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="G36" s="87">
+      <c r="F36" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" s="75">
         <v>72.239999999999995</v>
       </c>
-      <c r="H36" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I36" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J36" s="89"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="93" t="s">
+      <c r="H36" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I36" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="85">
+      <c r="O36" s="73">
         <v>45498</v>
       </c>
-      <c r="P36" s="94"/>
-    </row>
-    <row r="37" spans="1:16" s="95" customFormat="1" ht="60">
-      <c r="A37" s="82">
+      <c r="P36" s="82"/>
+    </row>
+    <row r="37" spans="1:16" s="83" customFormat="1" ht="60">
+      <c r="A37" s="70">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="B37" s="83" t="str">
+      <c r="B37" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-35</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="D37" s="85">
+      <c r="D37" s="73">
         <f t="shared" si="14"/>
         <v>45825</v>
       </c>
-      <c r="E37" s="85">
+      <c r="E37" s="73">
         <f t="shared" si="14"/>
         <v>45826</v>
       </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="87">
+      <c r="F37" s="74"/>
+      <c r="G37" s="75">
         <v>3.61</v>
       </c>
-      <c r="H37" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="I37" s="111" t="s">
-        <v>288</v>
-      </c>
-      <c r="J37" s="89"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="93" t="s">
+      <c r="H37" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="I37" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="J37" s="77"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="85"/>
-      <c r="P37" s="94"/>
-    </row>
-    <row r="38" spans="1:16" s="95" customFormat="1" ht="48">
-      <c r="A38" s="82">
+      <c r="O37" s="73"/>
+      <c r="P37" s="82"/>
+    </row>
+    <row r="38" spans="1:16" s="83" customFormat="1" ht="48">
+      <c r="A38" s="70">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="B38" s="83" t="str">
+      <c r="B38" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-36</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="85">
+      <c r="D38" s="73">
         <v>45812</v>
       </c>
-      <c r="E38" s="85">
+      <c r="E38" s="73">
         <v>45814</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G38" s="75">
+        <v>27.3</v>
+      </c>
+      <c r="H38" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="I38" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="G38" s="87">
-        <v>27.3</v>
-      </c>
-      <c r="H38" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I38" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J38" s="89"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="91" t="s">
+      <c r="J38" s="77"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="M38" s="92"/>
-      <c r="N38" s="93" t="s">
+      <c r="M38" s="80"/>
+      <c r="N38" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O38" s="85">
+      <c r="O38" s="73">
         <v>45498</v>
       </c>
-      <c r="P38" s="94"/>
-    </row>
-    <row r="39" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A39" s="82">
+      <c r="P38" s="82"/>
+    </row>
+    <row r="39" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A39" s="70">
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="B39" s="83" t="str">
+      <c r="B39" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-37</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="D39" s="85">
+      <c r="D39" s="73">
         <f>D38+1</f>
         <v>45813</v>
       </c>
-      <c r="E39" s="85">
+      <c r="E39" s="73">
         <f>E38+1</f>
         <v>45815</v>
       </c>
-      <c r="F39" s="98" t="s">
+      <c r="F39" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="75">
+        <v>27.3</v>
+      </c>
+      <c r="H39" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I39" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G39" s="87">
-        <v>27.3</v>
-      </c>
-      <c r="H39" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I39" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J39" s="89"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="93" t="s">
+      <c r="J39" s="77"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="85">
+      <c r="O39" s="73">
         <v>45498</v>
       </c>
-      <c r="P39" s="94"/>
-    </row>
-    <row r="40" spans="1:16" s="95" customFormat="1" ht="45">
-      <c r="A40" s="82">
+      <c r="P39" s="82"/>
+    </row>
+    <row r="40" spans="1:16" s="83" customFormat="1" ht="45">
+      <c r="A40" s="70">
         <f t="shared" si="10"/>
         <v>38</v>
       </c>
-      <c r="B40" s="83" t="str">
+      <c r="B40" s="71" t="str">
         <f t="shared" si="11"/>
         <v>06/25Г-38</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="D40" s="85">
+      <c r="D40" s="73">
         <f>D39+1</f>
         <v>45814</v>
       </c>
-      <c r="E40" s="85">
+      <c r="E40" s="73">
         <f>E39+1</f>
         <v>45816</v>
       </c>
-      <c r="F40" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="G40" s="87">
+      <c r="F40" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="75">
         <v>27.3</v>
       </c>
-      <c r="H40" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I40" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J40" s="89"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="93" t="s">
+      <c r="H40" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="I40" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" s="77"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O40" s="85">
+      <c r="O40" s="73">
         <v>45498</v>
       </c>
-      <c r="P40" s="94"/>
+      <c r="P40" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6918,7 +6941,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6926,7 +6949,7 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="136" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" style="86" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
@@ -6936,40 +6959,40 @@
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="108" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="103" t="s">
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="102" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -6977,19 +7000,19 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="103"/>
+      <c r="A2" s="102"/>
       <c r="B2" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="107"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
@@ -7008,7 +7031,7 @@
       <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="103"/>
+      <c r="N2" s="102"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
@@ -7018,16 +7041,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
         <v>240</v>
       </c>
+      <c r="D3" s="86">
+        <v>45815</v>
+      </c>
+      <c r="E3" s="86">
+        <v>45819</v>
+      </c>
       <c r="G3">
         <v>648.59</v>
       </c>
+      <c r="H3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L3" t="s">
+        <v>326</v>
+      </c>
       <c r="N3" t="s">
         <v>89</v>
+      </c>
+      <c r="O3" s="86">
+        <v>45498</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -7035,19 +7076,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="101">
-        <v>1</v>
-      </c>
-      <c r="E4" s="101">
-        <v>1</v>
+      <c r="D4" s="86">
+        <v>45816</v>
+      </c>
+      <c r="E4" s="86">
+        <v>45820</v>
       </c>
       <c r="G4">
         <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" t="s">
+        <v>330</v>
       </c>
       <c r="N4" t="s">
         <v>89</v>
@@ -7058,28 +7105,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="86">
         <v>45823</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="86">
         <v>45825</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G5">
         <v>398.75</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="I5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L5" t="s">
         <v>272</v>
@@ -7087,7 +7134,7 @@
       <c r="N5" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="101">
+      <c r="O5" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7096,33 +7143,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="86">
         <v>45824</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="86">
         <v>45826</v>
       </c>
       <c r="F6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G6">
         <v>398.75</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N6" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="101">
+      <c r="O6" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7131,33 +7178,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="86">
         <v>45825</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="86">
         <v>45827</v>
       </c>
       <c r="F7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G7">
         <v>398.75</v>
       </c>
       <c r="H7" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="101">
+      <c r="O7" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7166,28 +7213,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="86">
         <v>45817</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="86">
         <v>45818</v>
       </c>
       <c r="F8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>114.95</v>
       </c>
       <c r="H8" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L8" t="s">
         <v>267</v>
@@ -7195,7 +7242,7 @@
       <c r="N8" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="101">
+      <c r="O8" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7204,33 +7251,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="86">
         <v>45818</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="86">
         <v>45819</v>
       </c>
       <c r="F9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G9">
         <v>114.95</v>
       </c>
       <c r="H9" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N9" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="101">
+      <c r="O9" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7239,33 +7286,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="86">
         <v>45819</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="86">
         <v>45820</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G10">
         <v>114.95</v>
       </c>
       <c r="H10" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N10" t="s">
         <v>89</v>
       </c>
-      <c r="O10" s="101">
+      <c r="O10" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7274,25 +7321,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="86">
         <v>45814</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="86">
         <v>45817</v>
       </c>
       <c r="G11">
         <v>1154.4100000000001</v>
       </c>
+      <c r="H11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" t="s">
+        <v>282</v>
+      </c>
       <c r="L11" t="s">
         <v>268</v>
       </c>
       <c r="N11" t="s">
         <v>89</v>
+      </c>
+      <c r="O11" s="86">
+        <v>45498</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -7300,19 +7356,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="101">
+        <v>278</v>
+      </c>
+      <c r="D12" s="86">
         <v>45815</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="86">
         <v>45818</v>
       </c>
       <c r="G12">
         <v>121.7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" t="s">
+        <v>330</v>
       </c>
       <c r="N12" t="s">
         <v>89</v>
@@ -7323,28 +7385,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
         <v>249</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="86">
         <v>45812</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="86">
         <v>45814</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G13">
         <v>349.81</v>
       </c>
       <c r="H13" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="I13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L13" t="s">
         <v>266</v>
@@ -7352,7 +7414,7 @@
       <c r="N13" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="101">
+      <c r="O13" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7361,33 +7423,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C14" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="86">
         <v>45813</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="86">
         <v>45815</v>
       </c>
       <c r="F14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>349.81</v>
       </c>
       <c r="H14" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N14" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="101">
+      <c r="O14" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7396,33 +7458,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="86">
         <v>45814</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="86">
         <v>45816</v>
       </c>
       <c r="F15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G15">
         <v>349.81</v>
       </c>
       <c r="H15" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N15" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="101">
+      <c r="O15" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7431,28 +7493,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C16" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="86">
         <v>45807</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="86">
         <v>45809</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G16">
         <v>242.41</v>
       </c>
       <c r="H16" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="I16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L16" t="s">
         <v>264</v>
@@ -7460,7 +7522,7 @@
       <c r="N16" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="101">
+      <c r="O16" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7469,33 +7531,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="86">
         <v>45808</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E17" s="86">
         <v>45810</v>
       </c>
       <c r="F17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G17">
         <v>242.41</v>
       </c>
       <c r="H17" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N17" t="s">
         <v>89</v>
       </c>
-      <c r="O17" s="101">
+      <c r="O17" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7504,33 +7566,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C18" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="86">
         <v>45809</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="86">
         <v>45811</v>
       </c>
       <c r="F18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G18">
         <v>242.41</v>
       </c>
       <c r="H18" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N18" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="101">
+      <c r="O18" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7539,27 +7601,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>327</v>
+      </c>
+      <c r="D19" s="86">
+        <v>45818</v>
+      </c>
+      <c r="E19" s="86">
+        <v>45821</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G19">
         <v>353.26</v>
       </c>
       <c r="H19" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="I19" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="L19" t="s">
+        <v>328</v>
       </c>
       <c r="N19" t="s">
         <v>89</v>
       </c>
-      <c r="O19" s="101">
+      <c r="O19" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7568,33 +7639,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C20" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="101">
-        <v>1</v>
-      </c>
-      <c r="E20" s="101">
-        <v>1</v>
+      <c r="D20" s="86">
+        <v>45819</v>
+      </c>
+      <c r="E20" s="86">
+        <v>45822</v>
       </c>
       <c r="F20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G20">
         <v>353.26</v>
       </c>
       <c r="H20" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N20" t="s">
         <v>89</v>
       </c>
-      <c r="O20" s="101">
+      <c r="O20" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7603,33 +7674,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C21" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="101">
-        <v>2</v>
-      </c>
-      <c r="E21" s="101">
-        <v>2</v>
+      <c r="D21" s="86">
+        <v>45820</v>
+      </c>
+      <c r="E21" s="86">
+        <v>45823</v>
       </c>
       <c r="F21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G21">
         <v>353.26</v>
       </c>
       <c r="H21" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N21" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="101">
+      <c r="O21" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7638,28 +7709,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C22" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="86">
         <v>45822</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="86">
         <v>45823</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G22">
         <v>42.31</v>
       </c>
       <c r="H22" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="I22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L22" t="s">
         <v>271</v>
@@ -7667,7 +7738,7 @@
       <c r="N22" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="101">
+      <c r="O22" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7676,33 +7747,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="101">
+        <v>275</v>
+      </c>
+      <c r="D23" s="86">
         <v>45823</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="86">
         <v>45824</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G23">
         <v>42.31</v>
       </c>
       <c r="H23" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N23" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="101">
+      <c r="O23" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7711,33 +7782,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
-      </c>
-      <c r="D24" s="101">
+        <v>276</v>
+      </c>
+      <c r="D24" s="86">
         <v>45824</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E24" s="86">
         <v>45825</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G24">
         <v>42.31</v>
       </c>
       <c r="H24" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N24" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="101">
+      <c r="O24" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7746,25 +7817,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C25" t="s">
-        <v>278</v>
-      </c>
-      <c r="D25" s="101">
+        <v>277</v>
+      </c>
+      <c r="D25" s="86">
         <v>45825</v>
       </c>
-      <c r="E25" s="101">
+      <c r="E25" s="86">
         <v>45826</v>
       </c>
       <c r="G25">
         <v>2.12</v>
       </c>
       <c r="H25" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N25" t="s">
         <v>14</v>
@@ -7775,28 +7846,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C26" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="101">
+      <c r="D26" s="86">
         <v>45824</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E26" s="86">
         <v>45825</v>
       </c>
       <c r="F26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G26">
         <v>46.17</v>
       </c>
       <c r="H26" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="I26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L26" t="s">
         <v>273</v>
@@ -7804,7 +7875,7 @@
       <c r="N26" t="s">
         <v>97</v>
       </c>
-      <c r="O26" s="101">
+      <c r="O26" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7813,33 +7884,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C27" t="s">
         <v>233</v>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="86">
         <v>45825</v>
       </c>
-      <c r="E27" s="101">
+      <c r="E27" s="86">
         <v>45826</v>
       </c>
       <c r="F27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G27">
         <v>46.17</v>
       </c>
       <c r="H27" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N27" t="s">
         <v>97</v>
       </c>
-      <c r="O27" s="101">
+      <c r="O27" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7848,33 +7919,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C28" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="86">
         <v>45826</v>
       </c>
-      <c r="E28" s="101">
+      <c r="E28" s="86">
         <v>45827</v>
       </c>
       <c r="F28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G28">
         <v>46.17</v>
       </c>
       <c r="H28" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N28" t="s">
         <v>97</v>
       </c>
-      <c r="O28" s="101">
+      <c r="O28" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7883,25 +7954,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C29" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="101">
+      <c r="D29" s="86">
         <v>45827</v>
       </c>
-      <c r="E29" s="101">
+      <c r="E29" s="86">
         <v>45828</v>
       </c>
       <c r="G29">
         <v>2.31</v>
       </c>
       <c r="H29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s">
         <v>97</v>
@@ -7912,28 +7983,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C30" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="101">
+      <c r="D30" s="86">
         <v>45830</v>
       </c>
-      <c r="E30" s="101">
+      <c r="E30" s="86">
         <v>45831</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G30">
         <v>126.18</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="I30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s">
         <v>274</v>
@@ -7941,7 +8012,7 @@
       <c r="N30" t="s">
         <v>97</v>
       </c>
-      <c r="O30" s="101">
+      <c r="O30" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7950,33 +8021,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C31" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="101">
+      <c r="D31" s="86">
         <v>45831</v>
       </c>
-      <c r="E31" s="101">
+      <c r="E31" s="86">
         <v>45832</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G31">
         <v>126.18</v>
       </c>
       <c r="H31" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s">
         <v>97</v>
       </c>
-      <c r="O31" s="101">
+      <c r="O31" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -7985,33 +8056,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C32" t="s">
         <v>238</v>
       </c>
-      <c r="D32" s="101">
+      <c r="D32" s="86">
         <v>45832</v>
       </c>
-      <c r="E32" s="101">
+      <c r="E32" s="86">
         <v>45833</v>
       </c>
       <c r="F32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G32">
         <v>126.18</v>
       </c>
       <c r="H32" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s">
         <v>97</v>
       </c>
-      <c r="O32" s="101">
+      <c r="O32" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -8020,25 +8091,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C33" t="s">
         <v>239</v>
       </c>
-      <c r="D33" s="101">
+      <c r="D33" s="86">
         <v>45833</v>
       </c>
-      <c r="E33" s="101">
+      <c r="E33" s="86">
         <v>45834</v>
       </c>
       <c r="G33">
         <v>6.31</v>
       </c>
       <c r="H33" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I33" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s">
         <v>97</v>
@@ -8049,28 +8120,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C34" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="101">
+      <c r="D34" s="86">
         <v>45822</v>
       </c>
-      <c r="E34" s="101">
+      <c r="E34" s="86">
         <v>45823</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G34">
         <v>72.239999999999995</v>
       </c>
       <c r="H34" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L34" t="s">
         <v>269</v>
@@ -8078,7 +8149,7 @@
       <c r="N34" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="101">
+      <c r="O34" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -8087,33 +8158,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C35" t="s">
         <v>258</v>
       </c>
-      <c r="D35" s="101">
+      <c r="D35" s="86">
         <v>45823</v>
       </c>
-      <c r="E35" s="101">
+      <c r="E35" s="86">
         <v>45824</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G35">
         <v>72.239999999999995</v>
       </c>
       <c r="H35" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N35" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="101">
+      <c r="O35" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -8122,33 +8193,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C36" t="s">
         <v>259</v>
       </c>
-      <c r="D36" s="101">
+      <c r="D36" s="86">
         <v>45824</v>
       </c>
-      <c r="E36" s="101">
+      <c r="E36" s="86">
         <v>45825</v>
       </c>
       <c r="F36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G36">
         <v>72.239999999999995</v>
       </c>
       <c r="H36" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I36" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N36" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="101">
+      <c r="O36" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -8157,25 +8228,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C37" t="s">
         <v>260</v>
       </c>
-      <c r="D37" s="101">
+      <c r="D37" s="86">
         <v>45825</v>
       </c>
-      <c r="E37" s="101">
+      <c r="E37" s="86">
         <v>45826</v>
       </c>
       <c r="G37">
         <v>3.61</v>
       </c>
       <c r="H37" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N37" t="s">
         <v>33</v>
@@ -8186,28 +8257,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C38" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="101">
+      <c r="D38" s="86">
         <v>45812</v>
       </c>
-      <c r="E38" s="101">
+      <c r="E38" s="86">
         <v>45814</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G38">
         <v>27.3</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="I38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s">
         <v>265</v>
@@ -8215,7 +8286,7 @@
       <c r="N38" t="s">
         <v>33</v>
       </c>
-      <c r="O38" s="101">
+      <c r="O38" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -8224,33 +8295,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C39" t="s">
         <v>262</v>
       </c>
-      <c r="D39" s="101">
+      <c r="D39" s="86">
         <v>45813</v>
       </c>
-      <c r="E39" s="101">
+      <c r="E39" s="86">
         <v>45815</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G39">
         <v>27.3</v>
       </c>
       <c r="H39" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I39" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N39" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="101">
+      <c r="O39" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -8259,33 +8330,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C40" t="s">
         <v>263</v>
       </c>
-      <c r="D40" s="101">
+      <c r="D40" s="86">
         <v>45814</v>
       </c>
-      <c r="E40" s="101">
+      <c r="E40" s="86">
         <v>45816</v>
       </c>
       <c r="F40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G40">
         <v>27.3</v>
       </c>
       <c r="H40" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="I40" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N40" t="s">
         <v>33</v>
       </c>
-      <c r="O40" s="101">
+      <c r="O40" s="86">
         <v>45498</v>
       </c>
     </row>
@@ -8332,36 +8403,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="108" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="103" t="s">
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="102" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -8369,19 +8440,19 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="103"/>
+      <c r="A2" s="102"/>
       <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="107"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
@@ -8400,7 +8471,7 @@
       <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="103"/>
+      <c r="N2" s="102"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10186,36 +10257,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="108" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="103" t="s">
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="102" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -10226,19 +10297,19 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="103"/>
+      <c r="A2" s="102"/>
       <c r="B2" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="107"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
@@ -10257,7 +10328,7 @@
       <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="103"/>
+      <c r="N2" s="102"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
